--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2599.438824913635</v>
+        <v>3176.824918189066</v>
       </c>
       <c r="AB2" t="n">
-        <v>3556.666879394347</v>
+        <v>4346.672004690514</v>
       </c>
       <c r="AC2" t="n">
-        <v>3217.223584238133</v>
+        <v>3931.831729155161</v>
       </c>
       <c r="AD2" t="n">
-        <v>2599438.824913635</v>
+        <v>3176824.918189066</v>
       </c>
       <c r="AE2" t="n">
-        <v>3556666.879394347</v>
+        <v>4346672.004690514</v>
       </c>
       <c r="AF2" t="n">
         <v>1.37950921881076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>114</v>
+        <v>113.7760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3217223.584238133</v>
+        <v>3931831.72915516</v>
       </c>
     </row>
     <row r="3">
@@ -4483,28 +4483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1866.578673338975</v>
+        <v>2316.713990099879</v>
       </c>
       <c r="AB3" t="n">
-        <v>2553.935288501648</v>
+        <v>3169.830287462726</v>
       </c>
       <c r="AC3" t="n">
-        <v>2310.191289037741</v>
+        <v>2867.306133711913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1866578.673338975</v>
+        <v>2316713.990099879</v>
       </c>
       <c r="AE3" t="n">
-        <v>2553935.288501648</v>
+        <v>3169830.287462726</v>
       </c>
       <c r="AF3" t="n">
         <v>1.784520444744978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>88</v>
+        <v>87.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2310191.289037741</v>
+        <v>2867306.133711914</v>
       </c>
     </row>
     <row r="4">
@@ -4589,28 +4589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1672.182780108567</v>
+        <v>2083.198177206855</v>
       </c>
       <c r="AB4" t="n">
-        <v>2287.954251242269</v>
+        <v>2850.323650271723</v>
       </c>
       <c r="AC4" t="n">
-        <v>2069.595108667665</v>
+        <v>2578.292761544158</v>
       </c>
       <c r="AD4" t="n">
-        <v>1672182.780108567</v>
+        <v>2083198.177206855</v>
       </c>
       <c r="AE4" t="n">
-        <v>2287954.251242268</v>
+        <v>2850323.650271723</v>
       </c>
       <c r="AF4" t="n">
         <v>1.94628385700799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2069595.108667665</v>
+        <v>2578292.761544158</v>
       </c>
     </row>
     <row r="5">
@@ -4695,28 +4695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1582.586102626913</v>
+        <v>1964.236946944014</v>
       </c>
       <c r="AB5" t="n">
-        <v>2165.364124385429</v>
+        <v>2687.555646827023</v>
       </c>
       <c r="AC5" t="n">
-        <v>1958.704811461719</v>
+        <v>2431.059107901893</v>
       </c>
       <c r="AD5" t="n">
-        <v>1582586.102626913</v>
+        <v>1964236.946944014</v>
       </c>
       <c r="AE5" t="n">
-        <v>2165364.124385429</v>
+        <v>2687555.646827023</v>
       </c>
       <c r="AF5" t="n">
         <v>2.034277367404413e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>78</v>
+        <v>77.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1958704.811461719</v>
+        <v>2431059.107901893</v>
       </c>
     </row>
     <row r="6">
@@ -4801,28 +4801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1524.672514563998</v>
+        <v>1896.53483761075</v>
       </c>
       <c r="AB6" t="n">
-        <v>2086.124198230564</v>
+        <v>2594.922634030987</v>
       </c>
       <c r="AC6" t="n">
-        <v>1887.027432645139</v>
+        <v>2347.26685983586</v>
       </c>
       <c r="AD6" t="n">
-        <v>1524672.514563998</v>
+        <v>1896534.83761075</v>
       </c>
       <c r="AE6" t="n">
-        <v>2086124.198230564</v>
+        <v>2594922.634030987</v>
       </c>
       <c r="AF6" t="n">
         <v>2.089484254749017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.10416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1887027.432645139</v>
+        <v>2347266.859835859</v>
       </c>
     </row>
     <row r="7">
@@ -4907,28 +4907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1479.355178321716</v>
+        <v>1851.250655757392</v>
       </c>
       <c r="AB7" t="n">
-        <v>2024.119019524099</v>
+        <v>2532.962818622116</v>
       </c>
       <c r="AC7" t="n">
-        <v>1830.939941169605</v>
+        <v>2291.220402248464</v>
       </c>
       <c r="AD7" t="n">
-        <v>1479355.178321716</v>
+        <v>1851250.655757392</v>
       </c>
       <c r="AE7" t="n">
-        <v>2024119.019524099</v>
+        <v>2532962.818622116</v>
       </c>
       <c r="AF7" t="n">
         <v>2.124199502686236e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.88020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1830939.941169605</v>
+        <v>2291220.402248465</v>
       </c>
     </row>
     <row r="8">
@@ -5013,28 +5013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1448.022579212718</v>
+        <v>1819.883891229613</v>
       </c>
       <c r="AB8" t="n">
-        <v>1981.248375126453</v>
+        <v>2490.045427591222</v>
       </c>
       <c r="AC8" t="n">
-        <v>1792.160810903943</v>
+        <v>2252.398986782622</v>
       </c>
       <c r="AD8" t="n">
-        <v>1448022.579212718</v>
+        <v>1819883.891229613</v>
       </c>
       <c r="AE8" t="n">
-        <v>1981248.375126453</v>
+        <v>2490045.427591222</v>
       </c>
       <c r="AF8" t="n">
         <v>2.151561868247863e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.94270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1792160.810903943</v>
+        <v>2252398.986782622</v>
       </c>
     </row>
     <row r="9">
@@ -5119,28 +5119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1429.093749207338</v>
+        <v>1791.133385564961</v>
       </c>
       <c r="AB9" t="n">
-        <v>1955.349114832049</v>
+        <v>2450.707717358053</v>
       </c>
       <c r="AC9" t="n">
-        <v>1768.733339662197</v>
+        <v>2216.815612403284</v>
       </c>
       <c r="AD9" t="n">
-        <v>1429093.749207338</v>
+        <v>1791133.385564961</v>
       </c>
       <c r="AE9" t="n">
-        <v>1955349.114832049</v>
+        <v>2450707.717358053</v>
       </c>
       <c r="AF9" t="n">
         <v>2.174404019234331e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1768733.339662197</v>
+        <v>2216815.612403284</v>
       </c>
     </row>
     <row r="10">
@@ -5225,28 +5225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1406.113734727413</v>
+        <v>1768.22069089274</v>
       </c>
       <c r="AB10" t="n">
-        <v>1923.906845213927</v>
+        <v>2419.357557670773</v>
       </c>
       <c r="AC10" t="n">
-        <v>1740.291876126925</v>
+        <v>2188.457467956332</v>
       </c>
       <c r="AD10" t="n">
-        <v>1406113.734727412</v>
+        <v>1768220.69089274</v>
       </c>
       <c r="AE10" t="n">
-        <v>1923906.845213927</v>
+        <v>2419357.557670773</v>
       </c>
       <c r="AF10" t="n">
         <v>2.187603045793795e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.74479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1740291.876126925</v>
+        <v>2188457.467956332</v>
       </c>
     </row>
     <row r="11">
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1390.850900533113</v>
+        <v>1743.136181039168</v>
       </c>
       <c r="AB11" t="n">
-        <v>1903.023562120564</v>
+        <v>2385.035824638644</v>
       </c>
       <c r="AC11" t="n">
-        <v>1721.401664262121</v>
+        <v>2157.411352953935</v>
       </c>
       <c r="AD11" t="n">
-        <v>1390850.900533113</v>
+        <v>1743136.181039168</v>
       </c>
       <c r="AE11" t="n">
-        <v>1903023.562120564</v>
+        <v>2385035.824638645</v>
       </c>
       <c r="AF11" t="n">
         <v>2.203333392515347e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.22395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1721401.664262121</v>
+        <v>2157411.352953936</v>
       </c>
     </row>
     <row r="12">
@@ -5437,28 +5437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1367.998025593833</v>
+        <v>1730.070816340379</v>
       </c>
       <c r="AB12" t="n">
-        <v>1871.755250430954</v>
+        <v>2367.159216254552</v>
       </c>
       <c r="AC12" t="n">
-        <v>1693.117556354817</v>
+        <v>2141.240862984042</v>
       </c>
       <c r="AD12" t="n">
-        <v>1367998.025593833</v>
+        <v>1730070.816340379</v>
       </c>
       <c r="AE12" t="n">
-        <v>1871755.250430954</v>
+        <v>2367159.216254552</v>
       </c>
       <c r="AF12" t="n">
         <v>2.21309705599769e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.91145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1693117.556354817</v>
+        <v>2141240.862984043</v>
       </c>
     </row>
     <row r="13">
@@ -5543,28 +5543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1347.946470109767</v>
+        <v>1710.019260856314</v>
       </c>
       <c r="AB13" t="n">
-        <v>1844.31982760546</v>
+        <v>2339.723793429058</v>
       </c>
       <c r="AC13" t="n">
-        <v>1668.30053177793</v>
+        <v>2116.423838407156</v>
       </c>
       <c r="AD13" t="n">
-        <v>1347946.470109767</v>
+        <v>1710019.260856314</v>
       </c>
       <c r="AE13" t="n">
-        <v>1844319.827605461</v>
+        <v>2339723.793429058</v>
       </c>
       <c r="AF13" t="n">
         <v>2.222559371841688e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1668300.53177793</v>
+        <v>2116423.838407157</v>
       </c>
     </row>
     <row r="14">
@@ -5649,28 +5649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1338.696419010163</v>
+        <v>1690.947534097438</v>
       </c>
       <c r="AB14" t="n">
-        <v>1831.663499607529</v>
+        <v>2313.629015492361</v>
       </c>
       <c r="AC14" t="n">
-        <v>1656.852105960853</v>
+        <v>2092.819509452487</v>
       </c>
       <c r="AD14" t="n">
-        <v>1338696.419010163</v>
+        <v>1690947.534097438</v>
       </c>
       <c r="AE14" t="n">
-        <v>1831663.499607529</v>
+        <v>2313629.015492362</v>
       </c>
       <c r="AF14" t="n">
         <v>2.23039441043863e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>71</v>
+        <v>70.36458333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1656852.105960853</v>
+        <v>2092819.509452487</v>
       </c>
     </row>
     <row r="15">
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1332.609770490357</v>
+        <v>1684.860885577632</v>
       </c>
       <c r="AB15" t="n">
-        <v>1823.335478578749</v>
+        <v>2305.300994463581</v>
       </c>
       <c r="AC15" t="n">
-        <v>1649.318899570609</v>
+        <v>2085.286303062243</v>
       </c>
       <c r="AD15" t="n">
-        <v>1332609.770490357</v>
+        <v>1684860.885577632</v>
       </c>
       <c r="AE15" t="n">
-        <v>1823335.478578749</v>
+        <v>2305300.994463582</v>
       </c>
       <c r="AF15" t="n">
         <v>2.234974894541458e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>71</v>
+        <v>70.234375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1649318.899570609</v>
+        <v>2085286.303062244</v>
       </c>
     </row>
     <row r="16">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1330.89475762174</v>
+        <v>1683.145872709014</v>
       </c>
       <c r="AB16" t="n">
-        <v>1820.988922310879</v>
+        <v>2302.954438195712</v>
       </c>
       <c r="AC16" t="n">
-        <v>1647.196295339532</v>
+        <v>2083.163698831166</v>
       </c>
       <c r="AD16" t="n">
-        <v>1330894.75762174</v>
+        <v>1683145.872709014</v>
       </c>
       <c r="AE16" t="n">
-        <v>1820988.922310879</v>
+        <v>2302954.438195711</v>
       </c>
       <c r="AF16" t="n">
         <v>2.234131121154095e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>71</v>
+        <v>70.26041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1647196.295339532</v>
+        <v>2083163.698831166</v>
       </c>
     </row>
     <row r="17">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1333.950030267087</v>
+        <v>1686.201145354361</v>
       </c>
       <c r="AB17" t="n">
-        <v>1825.169281133359</v>
+        <v>2307.134797018191</v>
       </c>
       <c r="AC17" t="n">
-        <v>1650.977686583165</v>
+        <v>2086.945090074799</v>
       </c>
       <c r="AD17" t="n">
-        <v>1333950.030267087</v>
+        <v>1686201.145354361</v>
       </c>
       <c r="AE17" t="n">
-        <v>1825169.281133359</v>
+        <v>2307134.797018191</v>
       </c>
       <c r="AF17" t="n">
         <v>2.233709234460413e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>71</v>
+        <v>70.26041666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1650977.686583165</v>
+        <v>2086945.090074799</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2132.396750067235</v>
+        <v>2645.329193347845</v>
       </c>
       <c r="AB2" t="n">
-        <v>2917.639308147144</v>
+        <v>3619.456106026206</v>
       </c>
       <c r="AC2" t="n">
-        <v>2639.183907510067</v>
+        <v>3274.020295205478</v>
       </c>
       <c r="AD2" t="n">
-        <v>2132396.750067235</v>
+        <v>2645329.193347845</v>
       </c>
       <c r="AE2" t="n">
-        <v>2917639.308147144</v>
+        <v>3619456.106026206</v>
       </c>
       <c r="AF2" t="n">
         <v>1.684589518105129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2639183.907510067</v>
+        <v>3274020.295205478</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1625.75082207544</v>
+        <v>2041.911939273746</v>
       </c>
       <c r="AB3" t="n">
-        <v>2224.423997827927</v>
+        <v>2793.833998111375</v>
       </c>
       <c r="AC3" t="n">
-        <v>2012.128093473918</v>
+        <v>2527.194402502269</v>
       </c>
       <c r="AD3" t="n">
-        <v>1625750.82207544</v>
+        <v>2041911.939273746</v>
       </c>
       <c r="AE3" t="n">
-        <v>2224423.997827927</v>
+        <v>2793833.998111376</v>
       </c>
       <c r="AF3" t="n">
         <v>2.08105662254232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2012128.093473918</v>
+        <v>2527194.402502269</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1488.686006175467</v>
+        <v>1866.125937803198</v>
       </c>
       <c r="AB4" t="n">
-        <v>2036.885869840674</v>
+        <v>2553.315835768317</v>
       </c>
       <c r="AC4" t="n">
-        <v>1842.488341210352</v>
+        <v>2309.630956003871</v>
       </c>
       <c r="AD4" t="n">
-        <v>1488686.006175467</v>
+        <v>1866125.937803198</v>
       </c>
       <c r="AE4" t="n">
-        <v>2036885.869840674</v>
+        <v>2553315.835768317</v>
       </c>
       <c r="AF4" t="n">
         <v>2.228709624344527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.05729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1842488.341210352</v>
+        <v>2309630.956003871</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1414.989883977401</v>
+        <v>1782.816586262728</v>
       </c>
       <c r="AB5" t="n">
-        <v>1936.05158420583</v>
+        <v>2439.328305641448</v>
       </c>
       <c r="AC5" t="n">
-        <v>1751.277538274689</v>
+        <v>2206.522235769807</v>
       </c>
       <c r="AD5" t="n">
-        <v>1414989.883977401</v>
+        <v>1782816.586262728</v>
       </c>
       <c r="AE5" t="n">
-        <v>1936051.58420583</v>
+        <v>2439328.305641449</v>
       </c>
       <c r="AF5" t="n">
         <v>2.305140990619095e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.50520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1751277.538274689</v>
+        <v>2206522.235769807</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1362.916427763123</v>
+        <v>1730.674799210889</v>
       </c>
       <c r="AB6" t="n">
-        <v>1864.802384094703</v>
+        <v>2367.985612263827</v>
       </c>
       <c r="AC6" t="n">
-        <v>1686.828261823288</v>
+        <v>2141.988388918047</v>
       </c>
       <c r="AD6" t="n">
-        <v>1362916.427763123</v>
+        <v>1730674.799210889</v>
       </c>
       <c r="AE6" t="n">
-        <v>1864802.384094703</v>
+        <v>2367985.612263827</v>
       </c>
       <c r="AF6" t="n">
         <v>2.358161541511893e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.83854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1686828.261823288</v>
+        <v>2141988.388918047</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1329.837211554797</v>
+        <v>1687.949199271235</v>
       </c>
       <c r="AB7" t="n">
-        <v>1819.541941126448</v>
+        <v>2309.526561505955</v>
       </c>
       <c r="AC7" t="n">
-        <v>1645.887412008492</v>
+        <v>2089.108587916713</v>
       </c>
       <c r="AD7" t="n">
-        <v>1329837.211554797</v>
+        <v>1687949.199271235</v>
       </c>
       <c r="AE7" t="n">
-        <v>1819541.941126448</v>
+        <v>2309526.561505955</v>
       </c>
       <c r="AF7" t="n">
         <v>2.390343169416974e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.84895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1645887.412008492</v>
+        <v>2089108.587916713</v>
       </c>
     </row>
     <row r="8">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1309.454590552834</v>
+        <v>1657.852874730241</v>
       </c>
       <c r="AB8" t="n">
-        <v>1791.653539853788</v>
+        <v>2268.347442512835</v>
       </c>
       <c r="AC8" t="n">
-        <v>1620.660640611678</v>
+        <v>2051.85954624504</v>
       </c>
       <c r="AD8" t="n">
-        <v>1309454.590552834</v>
+        <v>1657852.874730241</v>
       </c>
       <c r="AE8" t="n">
-        <v>1791653.539853788</v>
+        <v>2268347.442512835</v>
       </c>
       <c r="AF8" t="n">
         <v>2.416853444863373e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.06770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1620660.640611678</v>
+        <v>2051859.54624504</v>
       </c>
     </row>
     <row r="9">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1280.971134612899</v>
+        <v>1629.43673859801</v>
       </c>
       <c r="AB9" t="n">
-        <v>1752.681218835379</v>
+        <v>2229.467231425268</v>
       </c>
       <c r="AC9" t="n">
-        <v>1585.407783213269</v>
+        <v>2016.690007934951</v>
       </c>
       <c r="AD9" t="n">
-        <v>1280971.134612899</v>
+        <v>1629436.73859801</v>
       </c>
       <c r="AE9" t="n">
-        <v>1752681.218835379</v>
+        <v>2229467.231425268</v>
       </c>
       <c r="AF9" t="n">
         <v>2.435450205251146e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.52083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1585407.783213269</v>
+        <v>2016690.007934951</v>
       </c>
     </row>
     <row r="10">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1262.291661267099</v>
+        <v>1610.655780025725</v>
       </c>
       <c r="AB10" t="n">
-        <v>1727.123139323452</v>
+        <v>2203.770295349253</v>
       </c>
       <c r="AC10" t="n">
-        <v>1562.288930938972</v>
+        <v>1993.445551372155</v>
       </c>
       <c r="AD10" t="n">
-        <v>1262291.661267099</v>
+        <v>1610655.780025725</v>
       </c>
       <c r="AE10" t="n">
-        <v>1727123.139323452</v>
+        <v>2203770.295349252</v>
       </c>
       <c r="AF10" t="n">
         <v>2.450222100027249e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.078125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1562288.930938972</v>
+        <v>1993445.551372155</v>
       </c>
     </row>
     <row r="11">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1243.146353642358</v>
+        <v>1591.577792208688</v>
       </c>
       <c r="AB11" t="n">
-        <v>1700.927684799919</v>
+        <v>2177.666950756561</v>
       </c>
       <c r="AC11" t="n">
-        <v>1538.593533829613</v>
+        <v>1969.833473351115</v>
       </c>
       <c r="AD11" t="n">
-        <v>1243146.353642358</v>
+        <v>1591577.792208688</v>
       </c>
       <c r="AE11" t="n">
-        <v>1700927.684799919</v>
+        <v>2177666.950756561</v>
       </c>
       <c r="AF11" t="n">
         <v>2.457146425703547e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>70</v>
+        <v>69.89583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1538593.533829613</v>
+        <v>1969833.473351115</v>
       </c>
     </row>
     <row r="12">
@@ -7324,28 +7324,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1244.688274150372</v>
+        <v>1593.119712716702</v>
       </c>
       <c r="AB12" t="n">
-        <v>1703.037408463716</v>
+        <v>2179.776674420358</v>
       </c>
       <c r="AC12" t="n">
-        <v>1540.501908427953</v>
+        <v>1971.741847949455</v>
       </c>
       <c r="AD12" t="n">
-        <v>1244688.274150372</v>
+        <v>1593119.712716702</v>
       </c>
       <c r="AE12" t="n">
-        <v>1703037.408463716</v>
+        <v>2179776.674420358</v>
       </c>
       <c r="AF12" t="n">
         <v>2.456684803991794e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>70</v>
+        <v>69.89583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1540501.908427953</v>
+        <v>1971741.847949455</v>
       </c>
     </row>
   </sheetData>
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1300.90734153106</v>
+        <v>1684.346442214582</v>
       </c>
       <c r="AB2" t="n">
-        <v>1779.958816664182</v>
+        <v>2304.597110358617</v>
       </c>
       <c r="AC2" t="n">
-        <v>1610.082045389642</v>
+        <v>2084.649596668349</v>
       </c>
       <c r="AD2" t="n">
-        <v>1300907.34153106</v>
+        <v>1684346.442214582</v>
       </c>
       <c r="AE2" t="n">
-        <v>1779958.816664182</v>
+        <v>2304597.110358617</v>
       </c>
       <c r="AF2" t="n">
         <v>2.985520489435341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1610082.045389642</v>
+        <v>2084649.596668349</v>
       </c>
     </row>
     <row r="3">
@@ -7727,28 +7727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1118.724588542862</v>
+        <v>1464.741762267477</v>
       </c>
       <c r="AB3" t="n">
-        <v>1530.688336689914</v>
+        <v>2004.124298980274</v>
       </c>
       <c r="AC3" t="n">
-        <v>1384.601590170802</v>
+        <v>1812.853488691715</v>
       </c>
       <c r="AD3" t="n">
-        <v>1118724.588542862</v>
+        <v>1464741.762267477</v>
       </c>
       <c r="AE3" t="n">
-        <v>1530688.336689914</v>
+        <v>2004124.298980274</v>
       </c>
       <c r="AF3" t="n">
         <v>3.317439308146728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>73</v>
+        <v>72.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1384601.590170802</v>
+        <v>1812853.488691716</v>
       </c>
     </row>
     <row r="4">
@@ -7833,28 +7833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1060.853176525041</v>
+        <v>1397.51486850993</v>
       </c>
       <c r="AB4" t="n">
-        <v>1451.506117660623</v>
+        <v>1912.141497099964</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.976410992723</v>
+        <v>1729.649396324189</v>
       </c>
       <c r="AD4" t="n">
-        <v>1060853.176525041</v>
+        <v>1397514.86850993</v>
       </c>
       <c r="AE4" t="n">
-        <v>1451506.117660623</v>
+        <v>1912141.497099963</v>
       </c>
       <c r="AF4" t="n">
         <v>3.414087882646716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1312976.410992723</v>
+        <v>1729649.396324189</v>
       </c>
     </row>
     <row r="5">
@@ -7939,28 +7939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1062.297511671142</v>
+        <v>1398.95920365603</v>
       </c>
       <c r="AB5" t="n">
-        <v>1453.482320727088</v>
+        <v>1914.117700166428</v>
       </c>
       <c r="AC5" t="n">
-        <v>1314.764008012143</v>
+        <v>1731.436993343608</v>
       </c>
       <c r="AD5" t="n">
-        <v>1062297.511671142</v>
+        <v>1398959.20365603</v>
       </c>
       <c r="AE5" t="n">
-        <v>1453482.320727088</v>
+        <v>1914117.700166428</v>
       </c>
       <c r="AF5" t="n">
         <v>3.413535605078145e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1314764.008012143</v>
+        <v>1731436.993343608</v>
       </c>
     </row>
   </sheetData>
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1553.130559865865</v>
+        <v>1979.743719391073</v>
       </c>
       <c r="AB2" t="n">
-        <v>2125.06175129293</v>
+        <v>2708.772696999609</v>
       </c>
       <c r="AC2" t="n">
-        <v>1922.248840292433</v>
+        <v>2450.251232584323</v>
       </c>
       <c r="AD2" t="n">
-        <v>1553130.559865865</v>
+        <v>1979743.719391073</v>
       </c>
       <c r="AE2" t="n">
-        <v>2125061.75129293</v>
+        <v>2708772.696999609</v>
       </c>
       <c r="AF2" t="n">
         <v>2.390243770674174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1922248.840292433</v>
+        <v>2450251.232584323</v>
       </c>
     </row>
     <row r="3">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1291.717463190935</v>
+        <v>1661.46936736405</v>
       </c>
       <c r="AB3" t="n">
-        <v>1767.384819690404</v>
+        <v>2273.295687282808</v>
       </c>
       <c r="AC3" t="n">
-        <v>1598.708093039325</v>
+        <v>2056.335537479072</v>
       </c>
       <c r="AD3" t="n">
-        <v>1291717.463190935</v>
+        <v>1661469.36736405</v>
       </c>
       <c r="AE3" t="n">
-        <v>1767384.819690404</v>
+        <v>2273295.687282808</v>
       </c>
       <c r="AF3" t="n">
         <v>2.745599827823025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.59895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1598708.093039325</v>
+        <v>2056335.537479072</v>
       </c>
     </row>
     <row r="4">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1207.944252499524</v>
+        <v>1558.663696607977</v>
       </c>
       <c r="AB4" t="n">
-        <v>1652.762617009198</v>
+        <v>2132.632433088252</v>
       </c>
       <c r="AC4" t="n">
-        <v>1495.025272508741</v>
+        <v>1929.096986842728</v>
       </c>
       <c r="AD4" t="n">
-        <v>1207944.252499524</v>
+        <v>1558663.696607977</v>
       </c>
       <c r="AE4" t="n">
-        <v>1652762.617009198</v>
+        <v>2132632.433088252</v>
       </c>
       <c r="AF4" t="n">
         <v>2.871305638079585e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1495025.272508741</v>
+        <v>1929096.986842728</v>
       </c>
     </row>
     <row r="5">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1153.655107468301</v>
+        <v>1494.993466674761</v>
       </c>
       <c r="AB5" t="n">
-        <v>1578.481813709436</v>
+        <v>2045.516015561326</v>
       </c>
       <c r="AC5" t="n">
-        <v>1427.833724822146</v>
+        <v>1850.294837935911</v>
       </c>
       <c r="AD5" t="n">
-        <v>1153655.107468301</v>
+        <v>1494993.466674761</v>
       </c>
       <c r="AE5" t="n">
-        <v>1578481.813709436</v>
+        <v>2045516.015561325</v>
       </c>
       <c r="AF5" t="n">
         <v>2.940814494480167e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1427833.724822146</v>
+        <v>1850294.837935911</v>
       </c>
     </row>
     <row r="6">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1122.209603989309</v>
+        <v>1463.513797776988</v>
       </c>
       <c r="AB6" t="n">
-        <v>1535.456688571775</v>
+        <v>2002.444143790416</v>
       </c>
       <c r="AC6" t="n">
-        <v>1388.914857241481</v>
+        <v>1811.333685155065</v>
       </c>
       <c r="AD6" t="n">
-        <v>1122209.603989309</v>
+        <v>1463513.797776988</v>
       </c>
       <c r="AE6" t="n">
-        <v>1535456.688571775</v>
+        <v>2002444.143790416</v>
       </c>
       <c r="AF6" t="n">
         <v>2.970547067229499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.86979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1388914.857241481</v>
+        <v>1811333.685155065</v>
       </c>
     </row>
     <row r="7">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1123.071958740442</v>
+        <v>1464.37615252812</v>
       </c>
       <c r="AB7" t="n">
-        <v>1536.63660038668</v>
+        <v>2003.624055605322</v>
       </c>
       <c r="AC7" t="n">
-        <v>1389.982159928789</v>
+        <v>1812.400987842373</v>
       </c>
       <c r="AD7" t="n">
-        <v>1123071.958740442</v>
+        <v>1464376.15252812</v>
       </c>
       <c r="AE7" t="n">
-        <v>1536636.60038668</v>
+        <v>2003624.055605322</v>
       </c>
       <c r="AF7" t="n">
         <v>2.972779002985481e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.81770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1389982.159928789</v>
+        <v>1812400.987842373</v>
       </c>
     </row>
   </sheetData>
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1118.181536055771</v>
+        <v>1488.094602027735</v>
       </c>
       <c r="AB2" t="n">
-        <v>1529.945308319292</v>
+        <v>2036.076684594836</v>
       </c>
       <c r="AC2" t="n">
-        <v>1383.929475385024</v>
+        <v>1841.756383468679</v>
       </c>
       <c r="AD2" t="n">
-        <v>1118181.536055771</v>
+        <v>1488094.602027735</v>
       </c>
       <c r="AE2" t="n">
-        <v>1529945.308319292</v>
+        <v>2036076.684594837</v>
       </c>
       <c r="AF2" t="n">
         <v>3.616232211461354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1383929.475385024</v>
+        <v>1841756.383468679</v>
       </c>
     </row>
     <row r="3">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.476746084828</v>
+        <v>1346.670247902041</v>
       </c>
       <c r="AB3" t="n">
-        <v>1374.369398379747</v>
+        <v>1842.573644077899</v>
       </c>
       <c r="AC3" t="n">
-        <v>1243.201511937949</v>
+        <v>1666.721001555455</v>
       </c>
       <c r="AD3" t="n">
-        <v>1004476.746084828</v>
+        <v>1346670.247902041</v>
       </c>
       <c r="AE3" t="n">
-        <v>1374369.398379747</v>
+        <v>1842573.644077899</v>
       </c>
       <c r="AF3" t="n">
         <v>3.871258762276928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.91145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1243201.511937949</v>
+        <v>1666721.001555455</v>
       </c>
     </row>
     <row r="4">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1008.553580840914</v>
+        <v>1350.747082658128</v>
       </c>
       <c r="AB4" t="n">
-        <v>1379.94750355028</v>
+        <v>1848.151749248432</v>
       </c>
       <c r="AC4" t="n">
-        <v>1248.247250579926</v>
+        <v>1671.766740197433</v>
       </c>
       <c r="AD4" t="n">
-        <v>1008553.580840914</v>
+        <v>1350747.082658127</v>
       </c>
       <c r="AE4" t="n">
-        <v>1379947.50355028</v>
+        <v>1848151.749248432</v>
       </c>
       <c r="AF4" t="n">
         <v>3.867568836986087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1248247.250579926</v>
+        <v>1671766.740197433</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2241.997524903345</v>
+        <v>2766.177178383649</v>
       </c>
       <c r="AB2" t="n">
-        <v>3067.599923523017</v>
+        <v>3784.805650589029</v>
       </c>
       <c r="AC2" t="n">
-        <v>2774.832492225398</v>
+        <v>3423.589111304761</v>
       </c>
       <c r="AD2" t="n">
-        <v>2241997.524903345</v>
+        <v>2766177.178383649</v>
       </c>
       <c r="AE2" t="n">
-        <v>3067599.923523017</v>
+        <v>3784805.650589028</v>
       </c>
       <c r="AF2" t="n">
         <v>1.600842050007545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>105</v>
+        <v>104.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2774832.492225398</v>
+        <v>3423589.111304761</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1684.006610213763</v>
+        <v>2111.062811287018</v>
       </c>
       <c r="AB3" t="n">
-        <v>2304.132137222767</v>
+        <v>2888.449271921097</v>
       </c>
       <c r="AC3" t="n">
-        <v>2084.228999915991</v>
+        <v>2612.779727372961</v>
       </c>
       <c r="AD3" t="n">
-        <v>1684006.610213763</v>
+        <v>2111062.811287018</v>
       </c>
       <c r="AE3" t="n">
-        <v>2304132.137222767</v>
+        <v>2888449.271921097</v>
       </c>
       <c r="AF3" t="n">
         <v>1.996933978685646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.93229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2084228.999915991</v>
+        <v>2612779.727372961</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1527.831976166818</v>
+        <v>1925.761391143592</v>
       </c>
       <c r="AB4" t="n">
-        <v>2090.44711298115</v>
+        <v>2634.911693959163</v>
       </c>
       <c r="AC4" t="n">
-        <v>1890.937774479179</v>
+        <v>2383.439420009488</v>
       </c>
       <c r="AD4" t="n">
-        <v>1527831.976166818</v>
+        <v>1925761.391143592</v>
       </c>
       <c r="AE4" t="n">
-        <v>2090447.11298115</v>
+        <v>2634911.693959163</v>
       </c>
       <c r="AF4" t="n">
         <v>2.149643344526934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1890937.774479179</v>
+        <v>2383439.420009488</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1459.307834025273</v>
+        <v>1828.145639354204</v>
       </c>
       <c r="AB5" t="n">
-        <v>1996.689358631294</v>
+        <v>2501.349515857891</v>
       </c>
       <c r="AC5" t="n">
-        <v>1806.128128614638</v>
+        <v>2262.624228730508</v>
       </c>
       <c r="AD5" t="n">
-        <v>1459307.834025273</v>
+        <v>1828145.639354204</v>
       </c>
       <c r="AE5" t="n">
-        <v>1996689.358631294</v>
+        <v>2501349.515857891</v>
       </c>
       <c r="AF5" t="n">
         <v>2.230148787707488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1806128.128614638</v>
+        <v>2262624.228730508</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1405.358057250945</v>
+        <v>1774.127531742316</v>
       </c>
       <c r="AB6" t="n">
-        <v>1922.872893952487</v>
+        <v>2427.439557912589</v>
       </c>
       <c r="AC6" t="n">
-        <v>1739.356603722718</v>
+        <v>2195.768133438228</v>
       </c>
       <c r="AD6" t="n">
-        <v>1405358.057250945</v>
+        <v>1774127.531742316</v>
       </c>
       <c r="AE6" t="n">
-        <v>1922872.893952487</v>
+        <v>2427439.557912589</v>
       </c>
       <c r="AF6" t="n">
         <v>2.283111201566477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.41145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1739356.603722718</v>
+        <v>2195768.133438228</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1372.086917669355</v>
+        <v>1731.181628880679</v>
       </c>
       <c r="AB7" t="n">
-        <v>1877.34985295787</v>
+        <v>2368.679078977781</v>
       </c>
       <c r="AC7" t="n">
-        <v>1698.178217868638</v>
+        <v>2142.615672142108</v>
       </c>
       <c r="AD7" t="n">
-        <v>1372086.917669355</v>
+        <v>1731181.628880679</v>
       </c>
       <c r="AE7" t="n">
-        <v>1877349.85295787</v>
+        <v>2368679.07897778</v>
       </c>
       <c r="AF7" t="n">
         <v>2.316896459495965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1698178.217868638</v>
+        <v>2142615.672142108</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1342.372926198444</v>
+        <v>1701.534957217473</v>
       </c>
       <c r="AB8" t="n">
-        <v>1836.693858938585</v>
+        <v>2328.115194889337</v>
       </c>
       <c r="AC8" t="n">
-        <v>1661.402374857507</v>
+        <v>2105.923148219296</v>
       </c>
       <c r="AD8" t="n">
-        <v>1342372.926198444</v>
+        <v>1701534.957217473</v>
       </c>
       <c r="AE8" t="n">
-        <v>1836693.858938585</v>
+        <v>2328115.194889337</v>
       </c>
       <c r="AF8" t="n">
         <v>2.341286198077444e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.58854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1661402.374857507</v>
+        <v>2105923.148219296</v>
       </c>
     </row>
     <row r="9">
@@ -10314,28 +10314,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1326.796056979479</v>
+        <v>1676.216004910758</v>
       </c>
       <c r="AB9" t="n">
-        <v>1815.380899270228</v>
+        <v>2293.472687349946</v>
       </c>
       <c r="AC9" t="n">
-        <v>1642.123494146971</v>
+        <v>2074.5868729784</v>
       </c>
       <c r="AD9" t="n">
-        <v>1326796.056979479</v>
+        <v>1676216.004910758</v>
       </c>
       <c r="AE9" t="n">
-        <v>1815380.899270228</v>
+        <v>2293472.687349946</v>
       </c>
       <c r="AF9" t="n">
         <v>2.358532767839545e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.06770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1642123.494146971</v>
+        <v>2074586.8729784</v>
       </c>
     </row>
     <row r="10">
@@ -10420,28 +10420,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1297.180248050189</v>
+        <v>1646.566030562687</v>
       </c>
       <c r="AB10" t="n">
-        <v>1774.859242935895</v>
+        <v>2252.904284382366</v>
       </c>
       <c r="AC10" t="n">
-        <v>1605.469167820685</v>
+        <v>2037.890261451935</v>
       </c>
       <c r="AD10" t="n">
-        <v>1297180.248050189</v>
+        <v>1646566.030562687</v>
       </c>
       <c r="AE10" t="n">
-        <v>1774859.242935895</v>
+        <v>2252904.284382366</v>
       </c>
       <c r="AF10" t="n">
         <v>2.377452512280058e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.49479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1605469.167820685</v>
+        <v>2037890.261451934</v>
       </c>
     </row>
     <row r="11">
@@ -10526,28 +10526,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1280.568780044524</v>
+        <v>1629.954562557021</v>
       </c>
       <c r="AB11" t="n">
-        <v>1752.130699564297</v>
+        <v>2230.175741010768</v>
       </c>
       <c r="AC11" t="n">
-        <v>1584.909804728762</v>
+        <v>2017.330898360011</v>
       </c>
       <c r="AD11" t="n">
-        <v>1280568.780044524</v>
+        <v>1629954.562557021</v>
       </c>
       <c r="AE11" t="n">
-        <v>1752130.699564297</v>
+        <v>2230175.741010768</v>
       </c>
       <c r="AF11" t="n">
         <v>2.388649912050975e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.15625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1584909.804728762</v>
+        <v>2017330.898360011</v>
       </c>
     </row>
     <row r="12">
@@ -10632,28 +10632,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1260.62445329199</v>
+        <v>1610.077555612192</v>
       </c>
       <c r="AB12" t="n">
-        <v>1724.841991819883</v>
+        <v>2202.979143197195</v>
       </c>
       <c r="AC12" t="n">
-        <v>1560.225492951532</v>
+        <v>1992.729905671101</v>
       </c>
       <c r="AD12" t="n">
-        <v>1260624.45329199</v>
+        <v>1610077.555612192</v>
       </c>
       <c r="AE12" t="n">
-        <v>1724841.991819883</v>
+        <v>2202979.143197195</v>
       </c>
       <c r="AF12" t="n">
         <v>2.395600022253613e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>70</v>
+        <v>69.94791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1560225.492951532</v>
+        <v>1992729.905671101</v>
       </c>
     </row>
     <row r="13">
@@ -10738,28 +10738,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1263.940302707992</v>
+        <v>1613.393405028193</v>
       </c>
       <c r="AB13" t="n">
-        <v>1729.378883275808</v>
+        <v>2207.51603465312</v>
       </c>
       <c r="AC13" t="n">
-        <v>1564.329389854471</v>
+        <v>1996.83380257404</v>
       </c>
       <c r="AD13" t="n">
-        <v>1263940.302707992</v>
+        <v>1613393.405028193</v>
       </c>
       <c r="AE13" t="n">
-        <v>1729378.883275808</v>
+        <v>2207516.03465312</v>
       </c>
       <c r="AF13" t="n">
         <v>2.395793080870352e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>70</v>
+        <v>69.94791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1564329.389854471</v>
+        <v>1996833.802574039</v>
       </c>
     </row>
   </sheetData>
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.971499826527</v>
+        <v>1374.104866787849</v>
       </c>
       <c r="AB2" t="n">
-        <v>1402.411224613862</v>
+        <v>1880.110899967426</v>
       </c>
       <c r="AC2" t="n">
-        <v>1268.567065633231</v>
+        <v>1700.675754426755</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024971.499826527</v>
+        <v>1374104.866787849</v>
       </c>
       <c r="AE2" t="n">
-        <v>1402411.224613862</v>
+        <v>1880110.899967426</v>
       </c>
       <c r="AF2" t="n">
         <v>4.076563239828776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1268567.065633231</v>
+        <v>1700675.754426755</v>
       </c>
     </row>
     <row r="3">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>984.171913137257</v>
+        <v>1324.11576173545</v>
       </c>
       <c r="AB3" t="n">
-        <v>1346.587430154872</v>
+        <v>1811.713601071066</v>
       </c>
       <c r="AC3" t="n">
-        <v>1218.071015768219</v>
+        <v>1638.806197740852</v>
       </c>
       <c r="AD3" t="n">
-        <v>984171.913137257</v>
+        <v>1324115.76173545</v>
       </c>
       <c r="AE3" t="n">
-        <v>1346587.430154872</v>
+        <v>1811713.601071066</v>
       </c>
       <c r="AF3" t="n">
         <v>4.185459238538371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1218071.015768219</v>
+        <v>1638806.197740851</v>
       </c>
     </row>
   </sheetData>
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1836.187198306316</v>
+        <v>2296.296849273519</v>
       </c>
       <c r="AB2" t="n">
-        <v>2512.352331584712</v>
+        <v>3141.894654643417</v>
       </c>
       <c r="AC2" t="n">
-        <v>2272.57695116691</v>
+        <v>2842.036638480974</v>
       </c>
       <c r="AD2" t="n">
-        <v>1836187.198306316</v>
+        <v>2296296.849273519</v>
       </c>
       <c r="AE2" t="n">
-        <v>2512352.331584712</v>
+        <v>3141894.654643417</v>
       </c>
       <c r="AF2" t="n">
         <v>1.986575310060652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2272576.951166911</v>
+        <v>2842036.638480973</v>
       </c>
     </row>
     <row r="3">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1463.466972645025</v>
+        <v>1846.903238762262</v>
       </c>
       <c r="AB3" t="n">
-        <v>2002.380075579085</v>
+        <v>2527.014490894877</v>
       </c>
       <c r="AC3" t="n">
-        <v>1811.275731523904</v>
+        <v>2285.839774570983</v>
       </c>
       <c r="AD3" t="n">
-        <v>1463466.972645025</v>
+        <v>1846903.238762262</v>
       </c>
       <c r="AE3" t="n">
-        <v>2002380.075579085</v>
+        <v>2527014.490894877</v>
       </c>
       <c r="AF3" t="n">
         <v>2.363181342707149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1811275.731523904</v>
+        <v>2285839.774570983</v>
       </c>
     </row>
     <row r="4">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1345.840019964795</v>
+        <v>1719.686831268582</v>
       </c>
       <c r="AB4" t="n">
-        <v>1841.437689587088</v>
+        <v>2352.951389770229</v>
       </c>
       <c r="AC4" t="n">
-        <v>1665.693460966925</v>
+        <v>2128.389011518574</v>
       </c>
       <c r="AD4" t="n">
-        <v>1345840.019964795</v>
+        <v>1719686.831268582</v>
       </c>
       <c r="AE4" t="n">
-        <v>1841437.689587088</v>
+        <v>2352951.389770228</v>
       </c>
       <c r="AF4" t="n">
         <v>2.503870801209134e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1665693.460966925</v>
+        <v>2128389.011518574</v>
       </c>
     </row>
     <row r="5">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1286.824416588476</v>
+        <v>1641.461185936152</v>
       </c>
       <c r="AB5" t="n">
-        <v>1760.689937462938</v>
+        <v>2245.919610754491</v>
       </c>
       <c r="AC5" t="n">
-        <v>1592.652160975322</v>
+        <v>2031.572195272053</v>
       </c>
       <c r="AD5" t="n">
-        <v>1286824.416588475</v>
+        <v>1641461.185936152</v>
       </c>
       <c r="AE5" t="n">
-        <v>1760689.937462938</v>
+        <v>2245919.610754491</v>
       </c>
       <c r="AF5" t="n">
         <v>2.57758576723362e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1592652.160975322</v>
+        <v>2031572.195272053</v>
       </c>
     </row>
     <row r="6">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1248.863845978307</v>
+        <v>1593.946336961171</v>
       </c>
       <c r="AB6" t="n">
-        <v>1708.750610051925</v>
+        <v>2180.907698179728</v>
       </c>
       <c r="AC6" t="n">
-        <v>1545.669850075112</v>
+        <v>1972.764928388634</v>
       </c>
       <c r="AD6" t="n">
-        <v>1248863.845978307</v>
+        <v>1593946.336961171</v>
       </c>
       <c r="AE6" t="n">
-        <v>1708750.610051925</v>
+        <v>2180907.698179728</v>
       </c>
       <c r="AF6" t="n">
         <v>2.622259331273751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1545669.850075112</v>
+        <v>1972764.928388634</v>
       </c>
     </row>
     <row r="7">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1215.77218185134</v>
+        <v>1560.820507415424</v>
       </c>
       <c r="AB7" t="n">
-        <v>1663.473135292222</v>
+        <v>2135.583476786777</v>
       </c>
       <c r="AC7" t="n">
-        <v>1504.71359395914</v>
+        <v>1931.766387072482</v>
       </c>
       <c r="AD7" t="n">
-        <v>1215772.18185134</v>
+        <v>1560820.507415424</v>
       </c>
       <c r="AE7" t="n">
-        <v>1663473.135292222</v>
+        <v>2135583.476786777</v>
       </c>
       <c r="AF7" t="n">
         <v>2.654886091527779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.33854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1504713.59395914</v>
+        <v>1931766.387072482</v>
       </c>
     </row>
     <row r="8">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1185.271926541089</v>
+        <v>1530.387571912877</v>
       </c>
       <c r="AB8" t="n">
-        <v>1621.741340400438</v>
+        <v>2093.943791825835</v>
       </c>
       <c r="AC8" t="n">
-        <v>1466.964623000887</v>
+        <v>1894.100735202547</v>
       </c>
       <c r="AD8" t="n">
-        <v>1185271.926541089</v>
+        <v>1530387.571912877</v>
       </c>
       <c r="AE8" t="n">
-        <v>1621741.340400438</v>
+        <v>2093943.791825836</v>
       </c>
       <c r="AF8" t="n">
         <v>2.672526054214572e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.86979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1466964.623000887</v>
+        <v>1894100.735202547</v>
       </c>
     </row>
     <row r="9">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1185.874581995907</v>
+        <v>1530.990227367695</v>
       </c>
       <c r="AB9" t="n">
-        <v>1622.565920181002</v>
+        <v>2094.7683716064</v>
       </c>
       <c r="AC9" t="n">
-        <v>1467.710506044499</v>
+        <v>1894.846618246159</v>
       </c>
       <c r="AD9" t="n">
-        <v>1185874.581995907</v>
+        <v>1530990.227367695</v>
       </c>
       <c r="AE9" t="n">
-        <v>1622565.920181002</v>
+        <v>2094768.3716064</v>
       </c>
       <c r="AF9" t="n">
         <v>2.675035805003344e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>70</v>
+        <v>69.81770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1467710.506044499</v>
+        <v>1894846.618246159</v>
       </c>
     </row>
     <row r="10">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1188.092862852189</v>
+        <v>1533.208508223977</v>
       </c>
       <c r="AB10" t="n">
-        <v>1625.601069912212</v>
+        <v>2097.80352133761</v>
       </c>
       <c r="AC10" t="n">
-        <v>1470.455985345221</v>
+        <v>1897.592097546882</v>
       </c>
       <c r="AD10" t="n">
-        <v>1188092.862852189</v>
+        <v>1533208.508223977</v>
       </c>
       <c r="AE10" t="n">
-        <v>1625601.069912212</v>
+        <v>2097803.52133761</v>
       </c>
       <c r="AF10" t="n">
         <v>2.675107512168737e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>70</v>
+        <v>69.81770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1470455.985345221</v>
+        <v>1897592.097546882</v>
       </c>
     </row>
   </sheetData>
@@ -12583,28 +12583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2033.080119967633</v>
+        <v>2525.115916008516</v>
       </c>
       <c r="AB2" t="n">
-        <v>2781.749913304382</v>
+        <v>3454.974996535028</v>
       </c>
       <c r="AC2" t="n">
-        <v>2516.263605789135</v>
+        <v>3125.237031953458</v>
       </c>
       <c r="AD2" t="n">
-        <v>2033080.119967633</v>
+        <v>2525115.916008516</v>
       </c>
       <c r="AE2" t="n">
-        <v>2781749.913304382</v>
+        <v>3454974.996535028</v>
       </c>
       <c r="AF2" t="n">
         <v>1.777144088480603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>99.19270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2516263.605789135</v>
+        <v>3125237.031953458</v>
       </c>
     </row>
     <row r="3">
@@ -12689,28 +12689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1573.112673030844</v>
+        <v>1978.288655170855</v>
       </c>
       <c r="AB3" t="n">
-        <v>2152.40216007387</v>
+        <v>2706.781813940603</v>
       </c>
       <c r="AC3" t="n">
-        <v>1946.979918831824</v>
+        <v>2448.450356610248</v>
       </c>
       <c r="AD3" t="n">
-        <v>1573112.673030844</v>
+        <v>1978288.655170855</v>
       </c>
       <c r="AE3" t="n">
-        <v>2152402.16007387</v>
+        <v>2706781.813940603</v>
       </c>
       <c r="AF3" t="n">
         <v>2.16416838380099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>81.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1946979.918831824</v>
+        <v>2448450.356610247</v>
       </c>
     </row>
     <row r="4">
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1441.987393919073</v>
+        <v>1818.244270177575</v>
       </c>
       <c r="AB4" t="n">
-        <v>1972.990768354104</v>
+        <v>2487.802025732848</v>
       </c>
       <c r="AC4" t="n">
-        <v>1784.691298532322</v>
+        <v>2250.369692048977</v>
       </c>
       <c r="AD4" t="n">
-        <v>1441987.393919073</v>
+        <v>1818244.270177575</v>
       </c>
       <c r="AE4" t="n">
-        <v>1972990.768354104</v>
+        <v>2487802.025732848</v>
       </c>
       <c r="AF4" t="n">
         <v>2.311248445663739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1784691.298532323</v>
+        <v>2250369.692048977</v>
       </c>
     </row>
     <row r="5">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1369.059739929929</v>
+        <v>1735.732845562705</v>
       </c>
       <c r="AB5" t="n">
-        <v>1873.207934825131</v>
+        <v>2374.906254427638</v>
       </c>
       <c r="AC5" t="n">
-        <v>1694.431598589269</v>
+        <v>2148.248534706926</v>
       </c>
       <c r="AD5" t="n">
-        <v>1369059.739929929</v>
+        <v>1735732.845562705</v>
       </c>
       <c r="AE5" t="n">
-        <v>1873207.934825131</v>
+        <v>2374906.254427638</v>
       </c>
       <c r="AF5" t="n">
         <v>2.390101769211877e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>1694431.598589269</v>
+        <v>2148248.534706926</v>
       </c>
     </row>
     <row r="6">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1328.207693084938</v>
+        <v>1685.16238847658</v>
       </c>
       <c r="AB6" t="n">
-        <v>1817.312362066705</v>
+        <v>2305.713524031291</v>
       </c>
       <c r="AC6" t="n">
-        <v>1643.870620844977</v>
+        <v>2085.659461387</v>
       </c>
       <c r="AD6" t="n">
-        <v>1328207.693084938</v>
+        <v>1685162.388476579</v>
       </c>
       <c r="AE6" t="n">
-        <v>1817312.362066705</v>
+        <v>2305713.524031291</v>
       </c>
       <c r="AF6" t="n">
         <v>2.440053488335075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.23958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1643870.620844977</v>
+        <v>2085659.461387</v>
       </c>
     </row>
     <row r="7">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1295.217336702715</v>
+        <v>1652.137866675576</v>
       </c>
       <c r="AB7" t="n">
-        <v>1772.173501032744</v>
+        <v>2260.527916364083</v>
       </c>
       <c r="AC7" t="n">
-        <v>1603.039749355309</v>
+        <v>2044.786304697151</v>
       </c>
       <c r="AD7" t="n">
-        <v>1295217.336702715</v>
+        <v>1652137.866675576</v>
       </c>
       <c r="AE7" t="n">
-        <v>1772173.501032744</v>
+        <v>2260527.916364083</v>
       </c>
       <c r="AF7" t="n">
         <v>2.470444168397834e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.35416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1603039.749355309</v>
+        <v>2044786.304697151</v>
       </c>
     </row>
     <row r="8">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1266.522264170761</v>
+        <v>1623.510113951327</v>
       </c>
       <c r="AB8" t="n">
-        <v>1732.91163685727</v>
+        <v>2221.358162119449</v>
       </c>
       <c r="AC8" t="n">
-        <v>1567.524982392369</v>
+        <v>2009.35485682253</v>
       </c>
       <c r="AD8" t="n">
-        <v>1266522.264170761</v>
+        <v>1623510.113951327</v>
       </c>
       <c r="AE8" t="n">
-        <v>1732911.63685727</v>
+        <v>2221358.162119449</v>
       </c>
       <c r="AF8" t="n">
         <v>2.492712617708853e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>71</v>
+        <v>70.703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1567524.982392369</v>
+        <v>2009354.85682253</v>
       </c>
     </row>
     <row r="9">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1247.801988005124</v>
+        <v>1595.105592963336</v>
       </c>
       <c r="AB9" t="n">
-        <v>1707.297729127148</v>
+        <v>2182.493843384655</v>
       </c>
       <c r="AC9" t="n">
-        <v>1544.355630066665</v>
+        <v>1974.199694121371</v>
       </c>
       <c r="AD9" t="n">
-        <v>1247801.988005124</v>
+        <v>1595105.592963336</v>
       </c>
       <c r="AE9" t="n">
-        <v>1707297.729127148</v>
+        <v>2182493.843384655</v>
       </c>
       <c r="AF9" t="n">
         <v>2.513018194588202e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.13020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1544355.630066665</v>
+        <v>1974199.694121371</v>
       </c>
     </row>
     <row r="10">
@@ -13431,28 +13431,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1223.989771023291</v>
+        <v>1571.360695789208</v>
       </c>
       <c r="AB10" t="n">
-        <v>1674.716803331734</v>
+        <v>2150.005027520082</v>
       </c>
       <c r="AC10" t="n">
-        <v>1514.884182101548</v>
+        <v>1944.811565244573</v>
       </c>
       <c r="AD10" t="n">
-        <v>1223989.771023291</v>
+        <v>1571360.695789208</v>
       </c>
       <c r="AE10" t="n">
-        <v>1674716.803331734</v>
+        <v>2150005.027520082</v>
       </c>
       <c r="AF10" t="n">
         <v>2.524389317640637e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>70</v>
+        <v>69.81770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1514884.182101548</v>
+        <v>1944811.565244573</v>
       </c>
     </row>
     <row r="11">
@@ -13537,28 +13537,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1225.259081597814</v>
+        <v>1572.63000636373</v>
       </c>
       <c r="AB11" t="n">
-        <v>1676.453530057826</v>
+        <v>2151.741754246174</v>
       </c>
       <c r="AC11" t="n">
-        <v>1516.455158066414</v>
+        <v>1946.382541209438</v>
       </c>
       <c r="AD11" t="n">
-        <v>1225259.081597814</v>
+        <v>1572630.00636373</v>
       </c>
       <c r="AE11" t="n">
-        <v>1676453.530057826</v>
+        <v>2151741.754246174</v>
       </c>
       <c r="AF11" t="n">
         <v>2.524253947128108e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>70</v>
+        <v>69.81770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1516455.158066414</v>
+        <v>1946382.541209438</v>
       </c>
     </row>
   </sheetData>
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2477.428007497773</v>
+        <v>3033.80710491739</v>
       </c>
       <c r="AB2" t="n">
-        <v>3389.726296268584</v>
+        <v>4150.988723071576</v>
       </c>
       <c r="AC2" t="n">
-        <v>3066.21557606332</v>
+        <v>3754.82418529073</v>
       </c>
       <c r="AD2" t="n">
-        <v>2477428.007497773</v>
+        <v>3033807.104917389</v>
       </c>
       <c r="AE2" t="n">
-        <v>3389726.296268584</v>
+        <v>4150988.723071576</v>
       </c>
       <c r="AF2" t="n">
         <v>1.447481444148631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>111</v>
+        <v>110.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3066215.57606332</v>
+        <v>3754824.185290731</v>
       </c>
     </row>
     <row r="3">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1807.70937149921</v>
+        <v>2246.934449197574</v>
       </c>
       <c r="AB3" t="n">
-        <v>2473.387712594181</v>
+        <v>3074.35484114411</v>
       </c>
       <c r="AC3" t="n">
-        <v>2237.33106072565</v>
+        <v>2780.94272998932</v>
       </c>
       <c r="AD3" t="n">
-        <v>1807709.37149921</v>
+        <v>2246934.449197574</v>
       </c>
       <c r="AE3" t="n">
-        <v>2473387.712594181</v>
+        <v>3074354.84114411</v>
       </c>
       <c r="AF3" t="n">
         <v>1.851484129048946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.53645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2237331.06072565</v>
+        <v>2780942.72998932</v>
       </c>
     </row>
     <row r="4">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1624.230293779012</v>
+        <v>2024.438196989069</v>
       </c>
       <c r="AB4" t="n">
-        <v>2222.34354393178</v>
+        <v>2769.925653030377</v>
       </c>
       <c r="AC4" t="n">
-        <v>2010.246195177684</v>
+        <v>2505.567836320228</v>
       </c>
       <c r="AD4" t="n">
-        <v>1624230.293779012</v>
+        <v>2024438.196989069</v>
       </c>
       <c r="AE4" t="n">
-        <v>2222343.54393178</v>
+        <v>2769925.653030377</v>
       </c>
       <c r="AF4" t="n">
         <v>2.009122703327747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2010246.195177684</v>
+        <v>2505567.836320228</v>
       </c>
     </row>
     <row r="5">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1537.098429629305</v>
+        <v>1917.713343078115</v>
       </c>
       <c r="AB5" t="n">
-        <v>2103.1258834156</v>
+        <v>2623.899999541155</v>
       </c>
       <c r="AC5" t="n">
-        <v>1902.40650085813</v>
+        <v>2373.478666251726</v>
       </c>
       <c r="AD5" t="n">
-        <v>1537098.429629305</v>
+        <v>1917713.343078115</v>
       </c>
       <c r="AE5" t="n">
-        <v>2103125.8834156</v>
+        <v>2623899.999541156</v>
       </c>
       <c r="AF5" t="n">
         <v>2.096679179205473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.43229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1902406.50085813</v>
+        <v>2373478.666251726</v>
       </c>
     </row>
     <row r="6">
@@ -14258,28 +14258,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1482.669400727019</v>
+        <v>1863.317468564753</v>
       </c>
       <c r="AB6" t="n">
-        <v>2028.653684832208</v>
+        <v>2549.473164255358</v>
       </c>
       <c r="AC6" t="n">
-        <v>1835.041824385151</v>
+        <v>2306.155023666885</v>
       </c>
       <c r="AD6" t="n">
-        <v>1482669.400727019</v>
+        <v>1863317.468564753</v>
       </c>
       <c r="AE6" t="n">
-        <v>2028653.684832208</v>
+        <v>2549473.164255358</v>
       </c>
       <c r="AF6" t="n">
         <v>2.146579602210979e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.63541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1835041.824385151</v>
+        <v>2306155.023666885</v>
       </c>
     </row>
     <row r="7">
@@ -14364,28 +14364,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1447.284622128724</v>
+        <v>1818.102535181983</v>
       </c>
       <c r="AB7" t="n">
-        <v>1980.238669687764</v>
+        <v>2487.608097658972</v>
       </c>
       <c r="AC7" t="n">
-        <v>1791.247470335192</v>
+        <v>2250.194272198292</v>
       </c>
       <c r="AD7" t="n">
-        <v>1447284.622128724</v>
+        <v>1818102.535181983</v>
       </c>
       <c r="AE7" t="n">
-        <v>1980238.669687764</v>
+        <v>2487608.097658972</v>
       </c>
       <c r="AF7" t="n">
         <v>2.185220127053713e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1791247.470335192</v>
+        <v>2250194.272198292</v>
       </c>
     </row>
     <row r="8">
@@ -14470,28 +14470,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1415.222971528295</v>
+        <v>1776.312215023563</v>
       </c>
       <c r="AB8" t="n">
-        <v>1936.370504876059</v>
+        <v>2430.428737959416</v>
       </c>
       <c r="AC8" t="n">
-        <v>1751.56602160376</v>
+        <v>2198.472030336727</v>
       </c>
       <c r="AD8" t="n">
-        <v>1415222.971528295</v>
+        <v>1776312.215023563</v>
       </c>
       <c r="AE8" t="n">
-        <v>1936370.504876059</v>
+        <v>2430428.737959416</v>
       </c>
       <c r="AF8" t="n">
         <v>2.213277578213407e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.39583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1751566.02160376</v>
+        <v>2198472.030336726</v>
       </c>
     </row>
     <row r="9">
@@ -14576,28 +14576,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1388.791634422495</v>
+        <v>1749.948197725468</v>
       </c>
       <c r="AB9" t="n">
-        <v>1900.205983379609</v>
+        <v>2394.356326393806</v>
       </c>
       <c r="AC9" t="n">
-        <v>1718.852991281706</v>
+        <v>2165.842319102991</v>
       </c>
       <c r="AD9" t="n">
-        <v>1388791.634422495</v>
+        <v>1749948.197725468</v>
       </c>
       <c r="AE9" t="n">
-        <v>1900205.983379608</v>
+        <v>2394356.326393806</v>
       </c>
       <c r="AF9" t="n">
         <v>2.232228663645831e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1718852.991281706</v>
+        <v>2165842.319102991</v>
       </c>
     </row>
     <row r="10">
@@ -14682,28 +14682,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1371.902625680085</v>
+        <v>1732.957703756572</v>
       </c>
       <c r="AB10" t="n">
-        <v>1877.097696527763</v>
+        <v>2371.109182977871</v>
       </c>
       <c r="AC10" t="n">
-        <v>1697.950126894316</v>
+        <v>2144.813850427102</v>
       </c>
       <c r="AD10" t="n">
-        <v>1371902.625680085</v>
+        <v>1732957.703756572</v>
       </c>
       <c r="AE10" t="n">
-        <v>1877097.696527763</v>
+        <v>2371109.182977871</v>
       </c>
       <c r="AF10" t="n">
         <v>2.246257389225677e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1697950.126894316</v>
+        <v>2144813.850427102</v>
       </c>
     </row>
     <row r="11">
@@ -14788,28 +14788,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1347.967236000698</v>
+        <v>1709.08963388489</v>
       </c>
       <c r="AB11" t="n">
-        <v>1844.34824041356</v>
+        <v>2338.451836794509</v>
       </c>
       <c r="AC11" t="n">
-        <v>1668.326232907502</v>
+        <v>2115.273275528607</v>
       </c>
       <c r="AD11" t="n">
-        <v>1347967.236000699</v>
+        <v>1709089.63388489</v>
       </c>
       <c r="AE11" t="n">
-        <v>1844348.24041356</v>
+        <v>2338451.836794509</v>
       </c>
       <c r="AF11" t="n">
         <v>2.260286114805524e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.88541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1668326.232907502</v>
+        <v>2115273.275528607</v>
       </c>
     </row>
     <row r="12">
@@ -14894,28 +14894,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1333.937618679525</v>
+        <v>1685.365512424508</v>
       </c>
       <c r="AB12" t="n">
-        <v>1825.152299051697</v>
+        <v>2305.991447178043</v>
       </c>
       <c r="AC12" t="n">
-        <v>1650.962325247543</v>
+        <v>2085.910859938693</v>
       </c>
       <c r="AD12" t="n">
-        <v>1333937.618679525</v>
+        <v>1685365.512424508</v>
       </c>
       <c r="AE12" t="n">
-        <v>1825152.299051697</v>
+        <v>2305991.447178042</v>
       </c>
       <c r="AF12" t="n">
         <v>2.270376952503308e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.57291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1650962.325247543</v>
+        <v>2085910.859938693</v>
       </c>
     </row>
     <row r="13">
@@ -15000,28 +15000,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1321.383743305613</v>
+        <v>1672.71015182411</v>
       </c>
       <c r="AB13" t="n">
-        <v>1807.975532927217</v>
+        <v>2288.675824489473</v>
       </c>
       <c r="AC13" t="n">
-        <v>1635.42488557424</v>
+        <v>2070.247815976891</v>
       </c>
       <c r="AD13" t="n">
-        <v>1321383.743305613</v>
+        <v>1672710.15182411</v>
       </c>
       <c r="AE13" t="n">
-        <v>1807975.532927216</v>
+        <v>2288675.824489473</v>
       </c>
       <c r="AF13" t="n">
         <v>2.279052611743476e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1635424.88557424</v>
+        <v>2070247.815976891</v>
       </c>
     </row>
     <row r="14">
@@ -15106,28 +15106,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1312.123939290177</v>
+        <v>1663.450347808674</v>
       </c>
       <c r="AB14" t="n">
-        <v>1795.305860559574</v>
+        <v>2276.006152121831</v>
       </c>
       <c r="AC14" t="n">
-        <v>1623.964388955369</v>
+        <v>2058.787319358019</v>
       </c>
       <c r="AD14" t="n">
-        <v>1312123.939290177</v>
+        <v>1663450.347808674</v>
       </c>
       <c r="AE14" t="n">
-        <v>1795305.860559574</v>
+        <v>2276006.152121831</v>
       </c>
       <c r="AF14" t="n">
         <v>2.282190616149494e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>71</v>
+        <v>70.20833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1623964.388955369</v>
+        <v>2058787.31935802</v>
       </c>
     </row>
     <row r="15">
@@ -15212,28 +15212,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1310.639844281552</v>
+        <v>1661.966252800049</v>
       </c>
       <c r="AB15" t="n">
-        <v>1793.275256295124</v>
+        <v>2273.97554785738</v>
       </c>
       <c r="AC15" t="n">
-        <v>1622.127582711946</v>
+        <v>2056.950513114597</v>
       </c>
       <c r="AD15" t="n">
-        <v>1310639.844281552</v>
+        <v>1661966.252800049</v>
       </c>
       <c r="AE15" t="n">
-        <v>1793275.256295124</v>
+        <v>2273975.54785738</v>
       </c>
       <c r="AF15" t="n">
         <v>2.287051446503915e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>71</v>
+        <v>70.05208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1622127.582711946</v>
+        <v>2056950.513114597</v>
       </c>
     </row>
   </sheetData>
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1648.563684590096</v>
+        <v>2086.302000029528</v>
       </c>
       <c r="AB2" t="n">
-        <v>2255.637562752942</v>
+        <v>2854.570437588703</v>
       </c>
       <c r="AC2" t="n">
-        <v>2040.362679571003</v>
+        <v>2582.134241440008</v>
       </c>
       <c r="AD2" t="n">
-        <v>1648563.684590096</v>
+        <v>2086302.000029528</v>
       </c>
       <c r="AE2" t="n">
-        <v>2255637.562752943</v>
+        <v>2854570.437588702</v>
       </c>
       <c r="AF2" t="n">
         <v>2.240417690624843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2040362.679571003</v>
+        <v>2582134.241440008</v>
       </c>
     </row>
     <row r="3">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1346.297845149103</v>
+        <v>1726.985028461003</v>
       </c>
       <c r="AB3" t="n">
-        <v>1842.06410620208</v>
+        <v>2362.937105142636</v>
       </c>
       <c r="AC3" t="n">
-        <v>1666.260093259363</v>
+        <v>2137.421704230878</v>
       </c>
       <c r="AD3" t="n">
-        <v>1346297.845149103</v>
+        <v>1726985.028461003</v>
       </c>
       <c r="AE3" t="n">
-        <v>1842064.106202079</v>
+        <v>2362937.105142636</v>
       </c>
       <c r="AF3" t="n">
         <v>2.602544913215911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1666260.093259363</v>
+        <v>2137421.704230879</v>
       </c>
     </row>
     <row r="4">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1247.760189700715</v>
+        <v>1609.407889034203</v>
       </c>
       <c r="AB4" t="n">
-        <v>1707.240538843045</v>
+        <v>2202.062875841587</v>
       </c>
       <c r="AC4" t="n">
-        <v>1544.30389794301</v>
+        <v>1991.901085585922</v>
       </c>
       <c r="AD4" t="n">
-        <v>1247760.189700715</v>
+        <v>1609407.889034203</v>
       </c>
       <c r="AE4" t="n">
-        <v>1707240.538843045</v>
+        <v>2202062.875841587</v>
       </c>
       <c r="AF4" t="n">
         <v>2.737623506518785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1544303.89794301</v>
+        <v>1991901.085585922</v>
       </c>
     </row>
     <row r="5">
@@ -15827,28 +15827,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1203.769123219347</v>
+        <v>1546.378349604279</v>
       </c>
       <c r="AB5" t="n">
-        <v>1647.050020934355</v>
+        <v>2115.823079326536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1489.857878585602</v>
+        <v>1913.891894211953</v>
       </c>
       <c r="AD5" t="n">
-        <v>1203769.123219347</v>
+        <v>1546378.349604279</v>
       </c>
       <c r="AE5" t="n">
-        <v>1647050.020934355</v>
+        <v>2115823.079326536</v>
       </c>
       <c r="AF5" t="n">
         <v>2.803283515529154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>72</v>
+        <v>71.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>1489857.878585602</v>
+        <v>1913891.894211953</v>
       </c>
     </row>
     <row r="6">
@@ -15933,28 +15933,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1163.244296404651</v>
+        <v>1505.819357370803</v>
       </c>
       <c r="AB6" t="n">
-        <v>1591.602165057308</v>
+        <v>2060.32847681624</v>
       </c>
       <c r="AC6" t="n">
-        <v>1439.701888251906</v>
+        <v>1863.693618678076</v>
       </c>
       <c r="AD6" t="n">
-        <v>1163244.296404651</v>
+        <v>1505819.357370803</v>
       </c>
       <c r="AE6" t="n">
-        <v>1591602.165057308</v>
+        <v>2060328.47681624</v>
       </c>
       <c r="AF6" t="n">
         <v>2.85137793801689e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>71</v>
+        <v>70.05208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1439701.888251906</v>
+        <v>1863693.618678076</v>
       </c>
     </row>
     <row r="7">
@@ -16039,28 +16039,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1140.133260663034</v>
+        <v>1482.775641436891</v>
       </c>
       <c r="AB7" t="n">
-        <v>1559.98062636869</v>
+        <v>2028.799048058464</v>
       </c>
       <c r="AC7" t="n">
-        <v>1411.098264834621</v>
+        <v>1835.173314349111</v>
       </c>
       <c r="AD7" t="n">
-        <v>1140133.260663034</v>
+        <v>1482775.641436891</v>
       </c>
       <c r="AE7" t="n">
-        <v>1559980.62636869</v>
+        <v>2028799.048058464</v>
       </c>
       <c r="AF7" t="n">
         <v>2.865721888583408e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.71354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1411098.264834621</v>
+        <v>1835173.314349111</v>
       </c>
     </row>
     <row r="8">
@@ -16145,28 +16145,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1143.048966653863</v>
+        <v>1485.691347427719</v>
       </c>
       <c r="AB8" t="n">
-        <v>1563.970023937211</v>
+        <v>2032.788445626985</v>
       </c>
       <c r="AC8" t="n">
-        <v>1414.706919898358</v>
+        <v>1838.781969412848</v>
       </c>
       <c r="AD8" t="n">
-        <v>1143048.966653863</v>
+        <v>1485691.347427719</v>
       </c>
       <c r="AE8" t="n">
-        <v>1563970.023937211</v>
+        <v>2032788.445626985</v>
       </c>
       <c r="AF8" t="n">
         <v>2.86526165487539e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.71354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1414706.919898358</v>
+        <v>1838781.969412847</v>
       </c>
     </row>
   </sheetData>
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1383.368617907188</v>
+        <v>1778.072168745088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1892.785972936761</v>
+        <v>2432.836784284884</v>
       </c>
       <c r="AC2" t="n">
-        <v>1712.141136221474</v>
+        <v>2200.650256100607</v>
       </c>
       <c r="AD2" t="n">
-        <v>1383368.617907188</v>
+        <v>1778072.168745088</v>
       </c>
       <c r="AE2" t="n">
-        <v>1892785.972936761</v>
+        <v>2432836.784284884</v>
       </c>
       <c r="AF2" t="n">
         <v>2.758842957373661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1712141.136221474</v>
+        <v>2200650.256100607</v>
       </c>
     </row>
     <row r="3">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1178.504204195347</v>
+        <v>1535.569856139879</v>
       </c>
       <c r="AB3" t="n">
-        <v>1612.481444116156</v>
+        <v>2101.034421731464</v>
       </c>
       <c r="AC3" t="n">
-        <v>1458.58847822163</v>
+        <v>1900.514645341744</v>
       </c>
       <c r="AD3" t="n">
-        <v>1178504.204195347</v>
+        <v>1535569.856139879</v>
       </c>
       <c r="AE3" t="n">
-        <v>1612481.444116156</v>
+        <v>2101034.421731464</v>
       </c>
       <c r="AF3" t="n">
         <v>3.094202293818975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.41145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1458588.47822163</v>
+        <v>1900514.645341744</v>
       </c>
     </row>
     <row r="4">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1100.996037383039</v>
+        <v>1448.728075766629</v>
       </c>
       <c r="AB4" t="n">
-        <v>1506.431350864568</v>
+        <v>1982.213666635825</v>
       </c>
       <c r="AC4" t="n">
-        <v>1362.659657027733</v>
+        <v>1793.033976346455</v>
       </c>
       <c r="AD4" t="n">
-        <v>1100996.037383039</v>
+        <v>1448728.075766629</v>
       </c>
       <c r="AE4" t="n">
-        <v>1506431.350864568</v>
+        <v>1982213.666635825</v>
       </c>
       <c r="AF4" t="n">
         <v>3.214565332647202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1362659.657027733</v>
+        <v>1793033.976346455</v>
       </c>
     </row>
     <row r="5">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1074.921425231908</v>
+        <v>1413.286695665632</v>
       </c>
       <c r="AB5" t="n">
-        <v>1470.754916188688</v>
+        <v>1933.721206818302</v>
       </c>
       <c r="AC5" t="n">
-        <v>1330.388131205129</v>
+        <v>1749.169568834322</v>
       </c>
       <c r="AD5" t="n">
-        <v>1074921.425231908</v>
+        <v>1413286.695665632</v>
       </c>
       <c r="AE5" t="n">
-        <v>1470754.916188688</v>
+        <v>1933721.206818302</v>
       </c>
       <c r="AF5" t="n">
         <v>3.246662143001396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.94791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1330388.131205129</v>
+        <v>1749169.568834322</v>
       </c>
     </row>
   </sheetData>
@@ -30726,28 +30726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1214.687421152251</v>
+        <v>1586.790467213077</v>
       </c>
       <c r="AB2" t="n">
-        <v>1661.988917847464</v>
+        <v>2171.116721495693</v>
       </c>
       <c r="AC2" t="n">
-        <v>1503.371028144198</v>
+        <v>1963.908388777601</v>
       </c>
       <c r="AD2" t="n">
-        <v>1214687.421152251</v>
+        <v>1586790.467213077</v>
       </c>
       <c r="AE2" t="n">
-        <v>1661988.917847464</v>
+        <v>2171116.721495693</v>
       </c>
       <c r="AF2" t="n">
         <v>3.267852345528543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1503371.028144198</v>
+        <v>1963908.388777601</v>
       </c>
     </row>
     <row r="3">
@@ -30832,28 +30832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1056.560095636835</v>
+        <v>1391.473437445832</v>
       </c>
       <c r="AB3" t="n">
-        <v>1445.632134992017</v>
+        <v>1903.875344588937</v>
       </c>
       <c r="AC3" t="n">
-        <v>1307.663032985823</v>
+        <v>1722.172153807197</v>
       </c>
       <c r="AD3" t="n">
-        <v>1056560.095636835</v>
+        <v>1391473.437445832</v>
       </c>
       <c r="AE3" t="n">
-        <v>1445632.134992017</v>
+        <v>1903875.344588937</v>
       </c>
       <c r="AF3" t="n">
         <v>3.580512997975253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>1307663.032985823</v>
+        <v>1722172.153807197</v>
       </c>
     </row>
     <row r="4">
@@ -30938,28 +30938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1034.656421320431</v>
+        <v>1369.535597710648</v>
       </c>
       <c r="AB4" t="n">
-        <v>1415.662561470402</v>
+        <v>1873.859024434074</v>
       </c>
       <c r="AC4" t="n">
-        <v>1280.55371349855</v>
+        <v>1695.020549119744</v>
       </c>
       <c r="AD4" t="n">
-        <v>1034656.421320431</v>
+        <v>1369535.597710648</v>
       </c>
       <c r="AE4" t="n">
-        <v>1415662.561470402</v>
+        <v>1873859.024434074</v>
       </c>
       <c r="AF4" t="n">
         <v>3.619889433527752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1280553.71349855</v>
+        <v>1695020.549119744</v>
       </c>
     </row>
   </sheetData>
@@ -31235,28 +31235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>963.4507367828896</v>
+        <v>1309.754107902022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1318.235802513044</v>
+        <v>1792.06335270472</v>
       </c>
       <c r="AC2" t="n">
-        <v>1192.425227676767</v>
+        <v>1621.031341499293</v>
       </c>
       <c r="AD2" t="n">
-        <v>963450.7367828896</v>
+        <v>1309754.107902023</v>
       </c>
       <c r="AE2" t="n">
-        <v>1318235.802513044</v>
+        <v>1792063.35270472</v>
       </c>
       <c r="AF2" t="n">
         <v>4.599789593148871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1192425.227676767</v>
+        <v>1621031.341499293</v>
       </c>
     </row>
     <row r="3">
@@ -31341,28 +31341,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>967.4231696549571</v>
+        <v>1313.72654077409</v>
       </c>
       <c r="AB3" t="n">
-        <v>1323.671060419976</v>
+        <v>1797.498610611652</v>
       </c>
       <c r="AC3" t="n">
-        <v>1197.341752197494</v>
+        <v>1625.94786602002</v>
       </c>
       <c r="AD3" t="n">
-        <v>967423.169654957</v>
+        <v>1313726.54077409</v>
       </c>
       <c r="AE3" t="n">
-        <v>1323671.060419976</v>
+        <v>1797498.610611652</v>
       </c>
       <c r="AF3" t="n">
         <v>4.598753196011902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1197341.752197494</v>
+        <v>1625947.866020021</v>
       </c>
     </row>
   </sheetData>
@@ -31638,28 +31638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1930.124325905504</v>
+        <v>2411.043589260024</v>
       </c>
       <c r="AB2" t="n">
-        <v>2640.881253779508</v>
+        <v>3298.896206561853</v>
       </c>
       <c r="AC2" t="n">
-        <v>2388.839253418909</v>
+        <v>2984.054182637371</v>
       </c>
       <c r="AD2" t="n">
-        <v>1930124.325905504</v>
+        <v>2411043.589260024</v>
       </c>
       <c r="AE2" t="n">
-        <v>2640881.253779508</v>
+        <v>3298896.206561854</v>
       </c>
       <c r="AF2" t="n">
         <v>1.875316560477936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>97</v>
+        <v>96.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2388839.253418909</v>
+        <v>2984054.182637371</v>
       </c>
     </row>
     <row r="3">
@@ -31744,28 +31744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1517.692829192357</v>
+        <v>1911.995021427996</v>
       </c>
       <c r="AB3" t="n">
-        <v>2076.574284783098</v>
+        <v>2616.075939584915</v>
       </c>
       <c r="AC3" t="n">
-        <v>1878.388949533712</v>
+        <v>2366.401323596572</v>
       </c>
       <c r="AD3" t="n">
-        <v>1517692.829192357</v>
+        <v>1911995.021427996</v>
       </c>
       <c r="AE3" t="n">
-        <v>2076574.284783098</v>
+        <v>2616075.939584916</v>
       </c>
       <c r="AF3" t="n">
         <v>2.260178899208841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.18229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1878388.949533712</v>
+        <v>2366401.323596572</v>
       </c>
     </row>
     <row r="4">
@@ -31850,28 +31850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1393.509520900064</v>
+        <v>1768.536677332487</v>
       </c>
       <c r="AB4" t="n">
-        <v>1906.661203796679</v>
+        <v>2419.789904257973</v>
       </c>
       <c r="AC4" t="n">
-        <v>1724.69213452213</v>
+        <v>2188.848551992052</v>
       </c>
       <c r="AD4" t="n">
-        <v>1393509.520900064</v>
+        <v>1768536.677332487</v>
       </c>
       <c r="AE4" t="n">
-        <v>1906661.203796679</v>
+        <v>2419789.904257973</v>
       </c>
       <c r="AF4" t="n">
         <v>2.402779791082192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1724692.13452213</v>
+        <v>2188848.551992052</v>
       </c>
     </row>
     <row r="5">
@@ -31956,28 +31956,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1334.138935921454</v>
+        <v>1689.993552807005</v>
       </c>
       <c r="AB5" t="n">
-        <v>1825.427750183593</v>
+        <v>2312.323736204107</v>
       </c>
       <c r="AC5" t="n">
-        <v>1651.211487710009</v>
+        <v>2091.638804187533</v>
       </c>
       <c r="AD5" t="n">
-        <v>1334138.935921454</v>
+        <v>1689993.552807005</v>
       </c>
       <c r="AE5" t="n">
-        <v>1825427.750183593</v>
+        <v>2312323.736204107</v>
       </c>
       <c r="AF5" t="n">
         <v>2.476968444443339e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1651211.487710009</v>
+        <v>2091638.804187533</v>
       </c>
     </row>
     <row r="6">
@@ -32062,28 +32062,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1284.250270090736</v>
+        <v>1640.13804136521</v>
       </c>
       <c r="AB6" t="n">
-        <v>1757.167876661402</v>
+        <v>2244.109225979509</v>
       </c>
       <c r="AC6" t="n">
-        <v>1589.466240713441</v>
+        <v>2029.934591079105</v>
       </c>
       <c r="AD6" t="n">
-        <v>1284250.270090736</v>
+        <v>1640138.04136521</v>
       </c>
       <c r="AE6" t="n">
-        <v>1757167.876661402</v>
+        <v>2244109.225979509</v>
       </c>
       <c r="AF6" t="n">
         <v>2.528190629127959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.69270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1589466.240713441</v>
+        <v>2029934.591079105</v>
       </c>
     </row>
     <row r="7">
@@ -32168,28 +32168,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1251.843431511843</v>
+        <v>1607.697037367537</v>
       </c>
       <c r="AB7" t="n">
-        <v>1712.827410428946</v>
+        <v>2199.722013113805</v>
       </c>
       <c r="AC7" t="n">
-        <v>1549.357566345975</v>
+        <v>1989.783631511459</v>
       </c>
       <c r="AD7" t="n">
-        <v>1251843.431511843</v>
+        <v>1607697.037367537</v>
       </c>
       <c r="AE7" t="n">
-        <v>1712827.410428945</v>
+        <v>2199722.013113805</v>
       </c>
       <c r="AF7" t="n">
         <v>2.557559870890064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1549357.566345975</v>
+        <v>1989783.631511459</v>
       </c>
     </row>
     <row r="8">
@@ -32274,28 +32274,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1229.692335138556</v>
+        <v>1575.892351413109</v>
       </c>
       <c r="AB8" t="n">
-        <v>1682.519303133612</v>
+        <v>2156.20543866724</v>
       </c>
       <c r="AC8" t="n">
-        <v>1521.942022273213</v>
+        <v>1950.420217854178</v>
       </c>
       <c r="AD8" t="n">
-        <v>1229692.335138556</v>
+        <v>1575892.351413109</v>
       </c>
       <c r="AE8" t="n">
-        <v>1682519.303133612</v>
+        <v>2156205.43866724</v>
       </c>
       <c r="AF8" t="n">
         <v>2.583101367872748e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>71</v>
+        <v>70.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1521942.022273213</v>
+        <v>1950420.217854178</v>
       </c>
     </row>
     <row r="9">
@@ -32380,28 +32380,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1205.571532056736</v>
+        <v>1551.838868138993</v>
       </c>
       <c r="AB9" t="n">
-        <v>1649.516156222336</v>
+        <v>2123.294401686806</v>
       </c>
       <c r="AC9" t="n">
-        <v>1492.088649382941</v>
+        <v>1920.650164052226</v>
       </c>
       <c r="AD9" t="n">
-        <v>1205571.532056736</v>
+        <v>1551838.868138993</v>
       </c>
       <c r="AE9" t="n">
-        <v>1649516.156222336</v>
+        <v>2123294.401686806</v>
       </c>
       <c r="AF9" t="n">
         <v>2.594515006851386e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>70</v>
+        <v>69.84375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1492088.649382941</v>
+        <v>1920650.164052226</v>
       </c>
     </row>
     <row r="10">
@@ -32486,28 +32486,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1202.672939902307</v>
+        <v>1548.940275984565</v>
       </c>
       <c r="AB10" t="n">
-        <v>1645.550174559787</v>
+        <v>2119.328420024256</v>
       </c>
       <c r="AC10" t="n">
-        <v>1488.501175443976</v>
+        <v>1917.06269011326</v>
       </c>
       <c r="AD10" t="n">
-        <v>1202672.939902307</v>
+        <v>1548940.275984565</v>
       </c>
       <c r="AE10" t="n">
-        <v>1645550.174559787</v>
+        <v>2119328.420024256</v>
       </c>
       <c r="AF10" t="n">
         <v>2.598621133069311e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>70</v>
+        <v>69.73958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1488501.175443976</v>
+        <v>1917062.69011326</v>
       </c>
     </row>
   </sheetData>
@@ -32783,28 +32783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2355.915586609227</v>
+        <v>2891.345339384462</v>
       </c>
       <c r="AB2" t="n">
-        <v>3223.467641259199</v>
+        <v>3956.066250499888</v>
       </c>
       <c r="AC2" t="n">
-        <v>2915.824413742549</v>
+        <v>3578.504839925884</v>
       </c>
       <c r="AD2" t="n">
-        <v>2355915.586609227</v>
+        <v>2891345.339384462</v>
       </c>
       <c r="AE2" t="n">
-        <v>3223467.641259199</v>
+        <v>3956066.250499888</v>
       </c>
       <c r="AF2" t="n">
         <v>1.522599073173728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>108</v>
+        <v>107.5520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2915824.413742549</v>
+        <v>3578504.839925884</v>
       </c>
     </row>
     <row r="3">
@@ -32889,28 +32889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1747.246754714231</v>
+        <v>2165.807407585022</v>
       </c>
       <c r="AB3" t="n">
-        <v>2390.660092886577</v>
+        <v>2963.353243737163</v>
       </c>
       <c r="AC3" t="n">
-        <v>2162.498848933996</v>
+        <v>2680.534969247287</v>
       </c>
       <c r="AD3" t="n">
-        <v>1747246.754714231</v>
+        <v>2165807.407585022</v>
       </c>
       <c r="AE3" t="n">
-        <v>2390660.092886577</v>
+        <v>2963353.243737163</v>
       </c>
       <c r="AF3" t="n">
         <v>1.925133216052674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>86</v>
+        <v>85.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2162498.848933996</v>
+        <v>2680534.969247287</v>
       </c>
     </row>
     <row r="4">
@@ -32995,28 +32995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1575.398508871196</v>
+        <v>1974.48549312621</v>
       </c>
       <c r="AB4" t="n">
-        <v>2155.529741514599</v>
+        <v>2701.578159847453</v>
       </c>
       <c r="AC4" t="n">
-        <v>1949.809008289438</v>
+        <v>2443.743331960372</v>
       </c>
       <c r="AD4" t="n">
-        <v>1575398.508871196</v>
+        <v>1974485.49312621</v>
       </c>
       <c r="AE4" t="n">
-        <v>2155529.741514599</v>
+        <v>2701578.159847453</v>
       </c>
       <c r="AF4" t="n">
         <v>2.077380546143273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1949809.008289438</v>
+        <v>2443743.331960373</v>
       </c>
     </row>
     <row r="5">
@@ -33101,28 +33101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1492.298938060924</v>
+        <v>1871.947430148799</v>
       </c>
       <c r="AB5" t="n">
-        <v>2041.829242637661</v>
+        <v>2561.281058421684</v>
       </c>
       <c r="AC5" t="n">
-        <v>1846.959925445662</v>
+        <v>2316.835988986461</v>
       </c>
       <c r="AD5" t="n">
-        <v>1492298.938060924</v>
+        <v>1871947.430148799</v>
       </c>
       <c r="AE5" t="n">
-        <v>2041829.242637661</v>
+        <v>2561281.058421683</v>
       </c>
       <c r="AF5" t="n">
         <v>2.161773737792007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.75520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1846959.925445662</v>
+        <v>2316835.98898646</v>
       </c>
     </row>
     <row r="6">
@@ -33207,28 +33207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1451.115955512482</v>
+        <v>1820.960798999693</v>
       </c>
       <c r="AB6" t="n">
-        <v>1985.480869049921</v>
+        <v>2491.518900312064</v>
       </c>
       <c r="AC6" t="n">
-        <v>1795.989361547698</v>
+        <v>2253.731833335019</v>
       </c>
       <c r="AD6" t="n">
-        <v>1451115.955512482</v>
+        <v>1820960.798999693</v>
       </c>
       <c r="AE6" t="n">
-        <v>1985480.869049921</v>
+        <v>2491518.900312064</v>
       </c>
       <c r="AF6" t="n">
         <v>2.210762036073947e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.08854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1795989.361547698</v>
+        <v>2253731.833335019</v>
       </c>
     </row>
     <row r="7">
@@ -33313,28 +33313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1405.098114944096</v>
+        <v>1774.97611282023</v>
       </c>
       <c r="AB7" t="n">
-        <v>1922.517229420411</v>
+        <v>2428.600623980147</v>
       </c>
       <c r="AC7" t="n">
-        <v>1739.034883314404</v>
+        <v>2196.818388989864</v>
       </c>
       <c r="AD7" t="n">
-        <v>1405098.114944096</v>
+        <v>1774976.11282023</v>
       </c>
       <c r="AE7" t="n">
-        <v>1922517.22942041</v>
+        <v>2428600.623980147</v>
       </c>
       <c r="AF7" t="n">
         <v>2.248305057992199e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.83854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1739034.883314404</v>
+        <v>2196818.388989864</v>
       </c>
     </row>
     <row r="8">
@@ -33419,28 +33419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1374.446920048913</v>
+        <v>1744.290752506267</v>
       </c>
       <c r="AB8" t="n">
-        <v>1880.578912329539</v>
+        <v>2386.615560256027</v>
       </c>
       <c r="AC8" t="n">
-        <v>1701.099100345888</v>
+        <v>2158.840320821168</v>
       </c>
       <c r="AD8" t="n">
-        <v>1374446.920048913</v>
+        <v>1744290.752506267</v>
       </c>
       <c r="AE8" t="n">
-        <v>1880578.912329539</v>
+        <v>2386615.560256028</v>
       </c>
       <c r="AF8" t="n">
         <v>2.275471867822492e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.97916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1701099.100345888</v>
+        <v>2158840.320821168</v>
       </c>
     </row>
     <row r="9">
@@ -33525,28 +33525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1356.836541226842</v>
+        <v>1716.910890502313</v>
       </c>
       <c r="AB9" t="n">
-        <v>1856.483615110101</v>
+        <v>2349.153225147957</v>
       </c>
       <c r="AC9" t="n">
-        <v>1679.30342447511</v>
+        <v>2124.953338397094</v>
       </c>
       <c r="AD9" t="n">
-        <v>1356836.541226842</v>
+        <v>1716910.890502313</v>
       </c>
       <c r="AE9" t="n">
-        <v>1856483.6151101</v>
+        <v>2349153.225147957</v>
       </c>
       <c r="AF9" t="n">
         <v>2.293457302108287e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.40625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1679303.42447511</v>
+        <v>2124953.338397094</v>
       </c>
     </row>
     <row r="10">
@@ -33631,28 +33631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1330.224699572592</v>
+        <v>1690.366368655766</v>
       </c>
       <c r="AB10" t="n">
-        <v>1820.072119327159</v>
+        <v>2312.833839295857</v>
       </c>
       <c r="AC10" t="n">
-        <v>1646.366990745838</v>
+        <v>2092.10022375614</v>
       </c>
       <c r="AD10" t="n">
-        <v>1330224.699572592</v>
+        <v>1690366.368655766</v>
       </c>
       <c r="AE10" t="n">
-        <v>1820072.11932716</v>
+        <v>2312833.839295857</v>
       </c>
       <c r="AF10" t="n">
         <v>2.307166479291167e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.98958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1646366.990745838</v>
+        <v>2092100.22375614</v>
       </c>
     </row>
     <row r="11">
@@ -33737,28 +33737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1316.648068038555</v>
+        <v>1667.121739166332</v>
       </c>
       <c r="AB11" t="n">
-        <v>1801.49597310358</v>
+        <v>2281.029511747734</v>
       </c>
       <c r="AC11" t="n">
-        <v>1629.563725846052</v>
+        <v>2063.331256591556</v>
       </c>
       <c r="AD11" t="n">
-        <v>1316648.068038555</v>
+        <v>1667121.739166331</v>
       </c>
       <c r="AE11" t="n">
-        <v>1801495.97310358</v>
+        <v>2281029.511747734</v>
       </c>
       <c r="AF11" t="n">
         <v>2.321881834615909e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.52083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1629563.725846052</v>
+        <v>2063331.256591556</v>
       </c>
     </row>
     <row r="12">
@@ -33843,28 +33843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1298.677145642728</v>
+        <v>1649.049331544019</v>
       </c>
       <c r="AB12" t="n">
-        <v>1776.907364260467</v>
+        <v>2256.302046340532</v>
       </c>
       <c r="AC12" t="n">
-        <v>1607.321819320597</v>
+        <v>2040.963745777602</v>
       </c>
       <c r="AD12" t="n">
-        <v>1298677.145642728</v>
+        <v>1649049.331544019</v>
       </c>
       <c r="AE12" t="n">
-        <v>1776907.364260467</v>
+        <v>2256302.046340532</v>
       </c>
       <c r="AF12" t="n">
         <v>2.330685893357207e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.26041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1607321.819320597</v>
+        <v>2040963.745777602</v>
       </c>
     </row>
     <row r="13">
@@ -33949,28 +33949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1289.682279812895</v>
+        <v>1640.054465714186</v>
       </c>
       <c r="AB13" t="n">
-        <v>1764.600192006616</v>
+        <v>2243.99487408668</v>
       </c>
       <c r="AC13" t="n">
-        <v>1596.189226313428</v>
+        <v>2029.831152770433</v>
       </c>
       <c r="AD13" t="n">
-        <v>1289682.279812895</v>
+        <v>1640054.465714186</v>
       </c>
       <c r="AE13" t="n">
-        <v>1764600.192006615</v>
+        <v>2243994.87408668</v>
       </c>
       <c r="AF13" t="n">
         <v>2.338986863027575e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.02604166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1596189.226313428</v>
+        <v>2029831.152770433</v>
       </c>
     </row>
     <row r="14">
@@ -34055,28 +34055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1290.385842436477</v>
+        <v>1640.758028337768</v>
       </c>
       <c r="AB14" t="n">
-        <v>1765.562837427193</v>
+        <v>2244.957519507257</v>
       </c>
       <c r="AC14" t="n">
-        <v>1597.059998206146</v>
+        <v>2030.701924663152</v>
       </c>
       <c r="AD14" t="n">
-        <v>1290385.842436477</v>
+        <v>1640758.028337768</v>
       </c>
       <c r="AE14" t="n">
-        <v>1765562.837427193</v>
+        <v>2244957.519507257</v>
       </c>
       <c r="AF14" t="n">
         <v>2.338923976893709e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>71</v>
+        <v>70.02604166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1597059.998206147</v>
+        <v>2030701.924663152</v>
       </c>
     </row>
   </sheetData>
@@ -34352,28 +34352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>945.0129392809811</v>
+        <v>1306.097217334124</v>
       </c>
       <c r="AB2" t="n">
-        <v>1293.008394552715</v>
+        <v>1787.059833699097</v>
       </c>
       <c r="AC2" t="n">
-        <v>1169.605488125282</v>
+        <v>1616.505351325083</v>
       </c>
       <c r="AD2" t="n">
-        <v>945012.9392809811</v>
+        <v>1306097.217334124</v>
       </c>
       <c r="AE2" t="n">
-        <v>1293008.394552715</v>
+        <v>1787059.833699096</v>
       </c>
       <c r="AF2" t="n">
         <v>5.165370102003706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1169605.488125282</v>
+        <v>1616505.351325083</v>
       </c>
     </row>
   </sheetData>
@@ -34649,28 +34649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1468.010812389296</v>
+        <v>1883.405061995592</v>
       </c>
       <c r="AB2" t="n">
-        <v>2008.597157577258</v>
+        <v>2576.957895789509</v>
       </c>
       <c r="AC2" t="n">
-        <v>1816.8994639419</v>
+        <v>2331.01665099848</v>
       </c>
       <c r="AD2" t="n">
-        <v>1468010.812389296</v>
+        <v>1883405.061995592</v>
       </c>
       <c r="AE2" t="n">
-        <v>2008597.157577259</v>
+        <v>2576957.895789509</v>
       </c>
       <c r="AF2" t="n">
         <v>2.561219924929851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.55729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1816899.463941901</v>
+        <v>2331016.65099848</v>
       </c>
     </row>
     <row r="3">
@@ -34755,28 +34755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1235.0604045844</v>
+        <v>1593.762852638686</v>
       </c>
       <c r="AB3" t="n">
-        <v>1689.864132571925</v>
+        <v>2180.656646834947</v>
       </c>
       <c r="AC3" t="n">
-        <v>1528.585871498466</v>
+        <v>1972.537837031844</v>
       </c>
       <c r="AD3" t="n">
-        <v>1235060.4045844</v>
+        <v>1593762.852638686</v>
       </c>
       <c r="AE3" t="n">
-        <v>1689864.132571925</v>
+        <v>2180656.646834947</v>
       </c>
       <c r="AF3" t="n">
         <v>2.908881783935072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1528585.871498466</v>
+        <v>1972537.837031845</v>
       </c>
     </row>
     <row r="4">
@@ -34861,28 +34861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1156.488853424456</v>
+        <v>1505.714028199446</v>
       </c>
       <c r="AB4" t="n">
-        <v>1582.359069942694</v>
+        <v>2060.184360797195</v>
       </c>
       <c r="AC4" t="n">
-        <v>1431.340941162266</v>
+        <v>1863.56325688962</v>
       </c>
       <c r="AD4" t="n">
-        <v>1156488.853424456</v>
+        <v>1505714.028199446</v>
       </c>
       <c r="AE4" t="n">
-        <v>1582359.069942694</v>
+        <v>2060184.360797195</v>
       </c>
       <c r="AF4" t="n">
         <v>3.030064398425648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1431340.941162266</v>
+        <v>1863563.25688962</v>
       </c>
     </row>
     <row r="5">
@@ -34967,28 +34967,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1112.826687626496</v>
+        <v>1452.642919959753</v>
       </c>
       <c r="AB5" t="n">
-        <v>1522.618568459119</v>
+        <v>1987.570129171595</v>
       </c>
       <c r="AC5" t="n">
-        <v>1377.301989293962</v>
+        <v>1797.879225615654</v>
       </c>
       <c r="AD5" t="n">
-        <v>1112826.687626496</v>
+        <v>1452642.919959754</v>
       </c>
       <c r="AE5" t="n">
-        <v>1522618.568459119</v>
+        <v>1987570.129171595</v>
       </c>
       <c r="AF5" t="n">
         <v>3.092942954743339e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.02604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1377301.989293962</v>
+        <v>1797879.225615654</v>
       </c>
     </row>
     <row r="6">
@@ -35073,28 +35073,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1099.924571220933</v>
+        <v>1439.808123361895</v>
       </c>
       <c r="AB6" t="n">
-        <v>1504.965323591823</v>
+        <v>1970.008994235141</v>
       </c>
       <c r="AC6" t="n">
-        <v>1361.333545340317</v>
+        <v>1781.994100750327</v>
       </c>
       <c r="AD6" t="n">
-        <v>1099924.571220933</v>
+        <v>1439808.123361895</v>
       </c>
       <c r="AE6" t="n">
-        <v>1504965.323591823</v>
+        <v>1970008.994235141</v>
       </c>
       <c r="AF6" t="n">
         <v>3.097517452888145e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1361333.545340317</v>
+        <v>1781994.100750327</v>
       </c>
     </row>
   </sheetData>
@@ -35370,28 +35370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1735.83498619925</v>
+        <v>2184.747723743946</v>
       </c>
       <c r="AB2" t="n">
-        <v>2375.046007752685</v>
+        <v>2989.268219893578</v>
       </c>
       <c r="AC2" t="n">
-        <v>2148.374950170776</v>
+        <v>2703.976656451231</v>
       </c>
       <c r="AD2" t="n">
-        <v>1735834.98619925</v>
+        <v>2184747.723743946</v>
       </c>
       <c r="AE2" t="n">
-        <v>2375046.007752685</v>
+        <v>2989268.219893578</v>
       </c>
       <c r="AF2" t="n">
         <v>2.10812163269772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2148374.950170776</v>
+        <v>2703976.656451231</v>
       </c>
     </row>
     <row r="3">
@@ -35476,28 +35476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1400.175127065429</v>
+        <v>1782.304714192755</v>
       </c>
       <c r="AB3" t="n">
-        <v>1915.781380217922</v>
+        <v>2438.627939693109</v>
       </c>
       <c r="AC3" t="n">
-        <v>1732.941894105977</v>
+        <v>2205.888711764608</v>
       </c>
       <c r="AD3" t="n">
-        <v>1400175.127065429</v>
+        <v>1782304.714192755</v>
       </c>
       <c r="AE3" t="n">
-        <v>1915781.380217922</v>
+        <v>2438627.939693109</v>
       </c>
       <c r="AF3" t="n">
         <v>2.476941085739513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1732941.894105977</v>
+        <v>2205888.711764608</v>
       </c>
     </row>
     <row r="4">
@@ -35582,28 +35582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1297.126103346385</v>
+        <v>1660.145794575466</v>
       </c>
       <c r="AB4" t="n">
-        <v>1774.785159763454</v>
+        <v>2271.484716601557</v>
       </c>
       <c r="AC4" t="n">
-        <v>1605.402155042245</v>
+        <v>2054.697403297926</v>
       </c>
       <c r="AD4" t="n">
-        <v>1297126.103346385</v>
+        <v>1660145.794575466</v>
       </c>
       <c r="AE4" t="n">
-        <v>1774785.159763454</v>
+        <v>2271484.716601557</v>
       </c>
       <c r="AF4" t="n">
         <v>2.614174508728759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.77604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1605402.155042245</v>
+        <v>2054697.403297926</v>
       </c>
     </row>
     <row r="5">
@@ -35688,28 +35688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1241.108012964447</v>
+        <v>1594.572756244406</v>
       </c>
       <c r="AB5" t="n">
-        <v>1698.138737159158</v>
+        <v>2181.764792678719</v>
       </c>
       <c r="AC5" t="n">
-        <v>1536.070759437374</v>
+        <v>1973.54022299158</v>
       </c>
       <c r="AD5" t="n">
-        <v>1241108.012964447</v>
+        <v>1594572.756244407</v>
       </c>
       <c r="AE5" t="n">
-        <v>1698138.737159158</v>
+        <v>2181764.792678719</v>
       </c>
       <c r="AF5" t="n">
         <v>2.683272611075746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>72</v>
+        <v>71.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1536070.759437374</v>
+        <v>1973540.22299158</v>
       </c>
     </row>
     <row r="6">
@@ -35794,28 +35794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1202.773453308658</v>
+        <v>1556.204031169836</v>
       </c>
       <c r="AB6" t="n">
-        <v>1645.687701436694</v>
+        <v>2129.267010323007</v>
       </c>
       <c r="AC6" t="n">
-        <v>1488.625576948771</v>
+        <v>1926.052755302797</v>
       </c>
       <c r="AD6" t="n">
-        <v>1202773.453308658</v>
+        <v>1556204.031169836</v>
       </c>
       <c r="AE6" t="n">
-        <v>1645687.701436694</v>
+        <v>2129267.010323007</v>
       </c>
       <c r="AF6" t="n">
         <v>2.728523351197941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>71</v>
+        <v>70.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1488625.576948771</v>
+        <v>1926052.755302797</v>
       </c>
     </row>
     <row r="7">
@@ -35900,28 +35900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1181.177810859792</v>
+        <v>1525.020286382925</v>
       </c>
       <c r="AB7" t="n">
-        <v>1616.139590705652</v>
+        <v>2086.600034975829</v>
       </c>
       <c r="AC7" t="n">
-        <v>1461.897496434865</v>
+        <v>1887.457856199278</v>
       </c>
       <c r="AD7" t="n">
-        <v>1181177.810859792</v>
+        <v>1525020.286382925</v>
       </c>
       <c r="AE7" t="n">
-        <v>1616139.590705652</v>
+        <v>2086600.034975829</v>
       </c>
       <c r="AF7" t="n">
         <v>2.754444397094453e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.02604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1461897.496434865</v>
+        <v>1887457.856199278</v>
       </c>
     </row>
     <row r="8">
@@ -36006,28 +36006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1162.238455974689</v>
+        <v>1506.148251305526</v>
       </c>
       <c r="AB8" t="n">
-        <v>1590.225929806486</v>
+        <v>2060.778484007504</v>
       </c>
       <c r="AC8" t="n">
-        <v>1438.456998961864</v>
+        <v>1864.100677814595</v>
       </c>
       <c r="AD8" t="n">
-        <v>1162238.455974689</v>
+        <v>1506148.251305526</v>
       </c>
       <c r="AE8" t="n">
-        <v>1590225.929806486</v>
+        <v>2060778.484007504</v>
       </c>
       <c r="AF8" t="n">
         <v>2.766960559255911e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.71354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1438456.998961864</v>
+        <v>1864100.677814595</v>
       </c>
     </row>
   </sheetData>
